--- a/Files/Futures_clean_CLOSE_pivot.xlsx
+++ b/Files/Futures_clean_CLOSE_pivot.xlsx
@@ -1,15 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c22f1ca899110f3/Dokumente/GitHub/AQM/Files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_FFC65FC0FCD1EADC9C160B72138B56737AFA5551" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EC69521F-26A6-4652-9AA9-10DCD20BF0E6}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -418,8 +435,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,22 +488,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -528,7 +557,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -560,9 +589,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -594,6 +641,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -769,14 +834,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -814,7 +884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -834,7 +904,7 @@
         <v>54.31</v>
       </c>
       <c r="G2">
-        <v>2.989</v>
+        <v>2.9889999999999999</v>
       </c>
       <c r="H2">
         <v>169</v>
@@ -852,7 +922,7 @@
         <v>652.75</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -872,7 +942,7 @@
         <v>56.25</v>
       </c>
       <c r="G3">
-        <v>2.503</v>
+        <v>2.5030000000000001</v>
       </c>
       <c r="H3">
         <v>210</v>
@@ -884,13 +954,13 @@
         <v>1585.5</v>
       </c>
       <c r="K3">
-        <v>33.233</v>
+        <v>33.232999999999997</v>
       </c>
       <c r="L3">
         <v>666</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -910,7 +980,7 @@
         <v>59.38</v>
       </c>
       <c r="G4">
-        <v>2.616</v>
+        <v>2.6160000000000001</v>
       </c>
       <c r="H4">
         <v>190.55</v>
@@ -922,13 +992,13 @@
         <v>1691.1</v>
       </c>
       <c r="K4">
-        <v>34.583</v>
+        <v>34.582999999999998</v>
       </c>
       <c r="L4">
         <v>664.25</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -948,7 +1018,7 @@
         <v>61.5</v>
       </c>
       <c r="G5">
-        <v>2.126</v>
+        <v>2.1259999999999999</v>
       </c>
       <c r="H5">
         <v>164.5</v>
@@ -960,13 +1030,13 @@
         <v>1638.3</v>
       </c>
       <c r="K5">
-        <v>32.469</v>
+        <v>32.469000000000001</v>
       </c>
       <c r="L5">
         <v>660.75</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -986,7 +1056,7 @@
         <v>57.87</v>
       </c>
       <c r="G6">
-        <v>2.285</v>
+        <v>2.2850000000000001</v>
       </c>
       <c r="H6">
         <v>140.85</v>
@@ -1004,7 +1074,7 @@
         <v>647.75</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1024,7 +1094,7 @@
         <v>53.98</v>
       </c>
       <c r="G7">
-        <v>2.422</v>
+        <v>2.4220000000000002</v>
       </c>
       <c r="H7">
         <v>112.05</v>
@@ -1042,12 +1112,12 @@
         <v>643.75</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B8">
-        <v>84.95999999999999</v>
+        <v>84.96</v>
       </c>
       <c r="C8">
         <v>672.5</v>
@@ -1062,13 +1132,13 @@
         <v>55.57</v>
       </c>
       <c r="G8">
-        <v>2.824</v>
+        <v>2.8239999999999998</v>
       </c>
       <c r="H8">
         <v>122.65</v>
       </c>
       <c r="I8">
-        <v>583.05</v>
+        <v>583.04999999999995</v>
       </c>
       <c r="J8">
         <v>1449.1</v>
@@ -1080,7 +1150,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1100,7 +1170,7 @@
         <v>54.69</v>
       </c>
       <c r="G9">
-        <v>3.209</v>
+        <v>3.2090000000000001</v>
       </c>
       <c r="H9">
         <v>109.9</v>
@@ -1118,7 +1188,7 @@
         <v>888.25</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1138,13 +1208,13 @@
         <v>58.91</v>
       </c>
       <c r="G10">
-        <v>2.799</v>
+        <v>2.7989999999999999</v>
       </c>
       <c r="H10">
         <v>131.9</v>
       </c>
       <c r="I10">
-        <v>627.95</v>
+        <v>627.95000000000005</v>
       </c>
       <c r="J10">
         <v>1536.3</v>
@@ -1156,7 +1226,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1188,18 +1258,18 @@
         <v>1665.3</v>
       </c>
       <c r="K11">
-        <v>34.517</v>
+        <v>34.517000000000003</v>
       </c>
       <c r="L11">
         <v>902.5</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B12">
-        <v>86.23999999999999</v>
+        <v>86.24</v>
       </c>
       <c r="C12">
         <v>755.75</v>
@@ -1214,7 +1284,7 @@
         <v>66.34</v>
       </c>
       <c r="G12">
-        <v>3.692</v>
+        <v>3.6920000000000002</v>
       </c>
       <c r="H12">
         <v>106.25</v>
@@ -1226,13 +1296,13 @@
         <v>1576</v>
       </c>
       <c r="K12">
-        <v>32.288</v>
+        <v>32.287999999999997</v>
       </c>
       <c r="L12">
         <v>864.5</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1246,13 +1316,13 @@
         <v>1710.9</v>
       </c>
       <c r="E13">
-        <v>126.725</v>
+        <v>126.72499999999999</v>
       </c>
       <c r="F13">
         <v>67.66</v>
       </c>
       <c r="G13">
-        <v>3.561</v>
+        <v>3.5609999999999999</v>
       </c>
       <c r="H13">
         <v>123.25</v>
@@ -1264,18 +1334,18 @@
         <v>1603.1</v>
       </c>
       <c r="K13">
-        <v>33.204</v>
+        <v>33.204000000000001</v>
       </c>
       <c r="L13">
         <v>844.75</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14">
-        <v>91.81999999999999</v>
+        <v>91.82</v>
       </c>
       <c r="C14">
         <v>698.25</v>
@@ -1287,7 +1357,7 @@
         <v>129.9</v>
       </c>
       <c r="F14">
-        <v>64.51000000000001</v>
+        <v>64.510000000000005</v>
       </c>
       <c r="G14">
         <v>3.351</v>
@@ -1302,18 +1372,18 @@
         <v>1538.7</v>
       </c>
       <c r="K14">
-        <v>30.173</v>
+        <v>30.172999999999998</v>
       </c>
       <c r="L14">
         <v>778</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B15">
-        <v>97.48999999999999</v>
+        <v>97.49</v>
       </c>
       <c r="C15">
         <v>740.5</v>
@@ -1340,13 +1410,13 @@
         <v>1673.9</v>
       </c>
       <c r="K15">
-        <v>31.335</v>
+        <v>31.335000000000001</v>
       </c>
       <c r="L15">
         <v>779.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1366,7 +1436,7 @@
         <v>67.33</v>
       </c>
       <c r="G16">
-        <v>3.486</v>
+        <v>3.4860000000000002</v>
       </c>
       <c r="H16">
         <v>127.15</v>
@@ -1384,7 +1454,7 @@
         <v>707.75</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1416,18 +1486,18 @@
         <v>1571.2</v>
       </c>
       <c r="K17">
-        <v>28.292</v>
+        <v>28.292000000000002</v>
       </c>
       <c r="L17">
         <v>687.75</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B18">
-        <v>93.45999999999999</v>
+        <v>93.46</v>
       </c>
       <c r="C18">
         <v>683.25</v>
@@ -1454,13 +1524,13 @@
         <v>1505.4</v>
       </c>
       <c r="K18">
-        <v>24.144</v>
+        <v>24.143999999999998</v>
       </c>
       <c r="L18">
         <v>721.75</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1492,13 +1562,13 @@
         <v>1460.6</v>
       </c>
       <c r="K19">
-        <v>22.228</v>
+        <v>22.228000000000002</v>
       </c>
       <c r="L19">
         <v>705.5</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -1518,7 +1588,7 @@
         <v>65.02</v>
       </c>
       <c r="G20">
-        <v>3.565</v>
+        <v>3.5649999999999999</v>
       </c>
       <c r="H20">
         <v>129.9</v>
@@ -1530,13 +1600,13 @@
         <v>1336.9</v>
       </c>
       <c r="K20">
-        <v>19.451</v>
+        <v>19.451000000000001</v>
       </c>
       <c r="L20">
         <v>648.5</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -1556,7 +1626,7 @@
         <v>66.27</v>
       </c>
       <c r="G21">
-        <v>3.446</v>
+        <v>3.4460000000000002</v>
       </c>
       <c r="H21">
         <v>143.9</v>
@@ -1568,13 +1638,13 @@
         <v>1428.4</v>
       </c>
       <c r="K21">
-        <v>19.617</v>
+        <v>19.617000000000001</v>
       </c>
       <c r="L21">
         <v>664.25</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1597,7 +1667,7 @@
         <v>3.581</v>
       </c>
       <c r="H22">
-        <v>136.95</v>
+        <v>136.94999999999999</v>
       </c>
       <c r="I22">
         <v>722.1</v>
@@ -1606,13 +1676,13 @@
         <v>1526.2</v>
       </c>
       <c r="K22">
-        <v>23.463</v>
+        <v>23.463000000000001</v>
       </c>
       <c r="L22">
         <v>643.25</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -1635,7 +1705,7 @@
         <v>3.56</v>
       </c>
       <c r="H23">
-        <v>131.3</v>
+        <v>131.30000000000001</v>
       </c>
       <c r="I23">
         <v>726.15</v>
@@ -1644,13 +1714,13 @@
         <v>1408.1</v>
       </c>
       <c r="K23">
-        <v>21.656</v>
+        <v>21.655999999999999</v>
       </c>
       <c r="L23">
         <v>678.5</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -1682,13 +1752,13 @@
         <v>1445.9</v>
       </c>
       <c r="K24">
-        <v>21.832</v>
+        <v>21.832000000000001</v>
       </c>
       <c r="L24">
         <v>667.5</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -1699,19 +1769,19 @@
         <v>415.25</v>
       </c>
       <c r="D25">
-        <v>1250.6</v>
+        <v>1250.5999999999999</v>
       </c>
       <c r="E25">
-        <v>133.475</v>
+        <v>133.47499999999999</v>
       </c>
       <c r="F25">
         <v>71.59</v>
       </c>
       <c r="G25">
-        <v>3.954</v>
+        <v>3.9540000000000002</v>
       </c>
       <c r="H25">
-        <v>139.7</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="I25">
         <v>718</v>
@@ -1720,13 +1790,13 @@
         <v>1367.9</v>
       </c>
       <c r="K25">
-        <v>19.981</v>
+        <v>19.981000000000002</v>
       </c>
       <c r="L25">
         <v>655</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -1737,7 +1807,7 @@
         <v>422</v>
       </c>
       <c r="D26">
-        <v>1201.9</v>
+        <v>1201.9000000000001</v>
       </c>
       <c r="E26">
         <v>134.5</v>
@@ -1746,10 +1816,10 @@
         <v>68.91</v>
       </c>
       <c r="G26">
-        <v>4.23</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="H26">
-        <v>136.45</v>
+        <v>136.44999999999999</v>
       </c>
       <c r="I26">
         <v>717.4</v>
@@ -1758,36 +1828,36 @@
         <v>1371.1</v>
       </c>
       <c r="K26">
-        <v>19.339</v>
+        <v>19.338999999999999</v>
       </c>
       <c r="L26">
         <v>605.25</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B27">
-        <v>97.48999999999999</v>
+        <v>97.49</v>
       </c>
       <c r="C27">
         <v>434</v>
       </c>
       <c r="D27">
-        <v>1240.1</v>
+        <v>1240.0999999999999</v>
       </c>
       <c r="E27">
-        <v>141.675</v>
+        <v>141.67500000000001</v>
       </c>
       <c r="F27">
         <v>61.12</v>
       </c>
       <c r="G27">
-        <v>4.943</v>
+        <v>4.9429999999999996</v>
       </c>
       <c r="H27">
-        <v>142.55</v>
+        <v>142.55000000000001</v>
       </c>
       <c r="I27">
         <v>703</v>
@@ -1802,7 +1872,7 @@
         <v>555.75</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -1816,7 +1886,7 @@
         <v>1321.4</v>
       </c>
       <c r="E28">
-        <v>151.95</v>
+        <v>151.94999999999999</v>
       </c>
       <c r="F28">
         <v>56.15</v>
@@ -1834,13 +1904,13 @@
         <v>1446.2</v>
       </c>
       <c r="K28">
-        <v>21.204</v>
+        <v>21.204000000000001</v>
       </c>
       <c r="L28">
         <v>599</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -1851,7 +1921,7 @@
         <v>502</v>
       </c>
       <c r="D29">
-        <v>1283.4</v>
+        <v>1283.4000000000001</v>
       </c>
       <c r="E29">
         <v>145.85</v>
@@ -1860,7 +1930,7 @@
         <v>51.27</v>
       </c>
       <c r="G29">
-        <v>4.371</v>
+        <v>4.3710000000000004</v>
       </c>
       <c r="H29">
         <v>155</v>
@@ -1872,33 +1942,33 @@
         <v>1418.5</v>
       </c>
       <c r="K29">
-        <v>19.734</v>
+        <v>19.734000000000002</v>
       </c>
       <c r="L29">
         <v>697.25</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B30">
-        <v>99.73999999999999</v>
+        <v>99.74</v>
       </c>
       <c r="C30">
         <v>514</v>
       </c>
       <c r="D30">
-        <v>1295.6</v>
+        <v>1295.5999999999999</v>
       </c>
       <c r="E30">
-        <v>145.825</v>
+        <v>145.82499999999999</v>
       </c>
       <c r="F30">
         <v>46.27</v>
       </c>
       <c r="G30">
-        <v>4.815</v>
+        <v>4.8150000000000004</v>
       </c>
       <c r="H30">
         <v>154.6</v>
@@ -1916,7 +1986,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -1927,16 +1997,16 @@
         <v>465.75</v>
       </c>
       <c r="D31">
-        <v>1245.6</v>
+        <v>1245.5999999999999</v>
       </c>
       <c r="E31">
-        <v>137.8</v>
+        <v>137.80000000000001</v>
       </c>
       <c r="F31">
         <v>44.14</v>
       </c>
       <c r="G31">
-        <v>4.542</v>
+        <v>4.5419999999999998</v>
       </c>
       <c r="H31">
         <v>159.4</v>
@@ -1948,51 +2018,51 @@
         <v>1454.7</v>
       </c>
       <c r="K31">
-        <v>18.653</v>
+        <v>18.652999999999999</v>
       </c>
       <c r="L31">
         <v>627.25</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>105.37</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>424.25</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>1321.8</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>153</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>39.6</v>
       </c>
-      <c r="G32">
-        <v>4.461</v>
-      </c>
-      <c r="H32">
-        <v>140.8</v>
-      </c>
-      <c r="I32">
+      <c r="G32" s="3">
+        <v>4.4610000000000003</v>
+      </c>
+      <c r="H32" s="3">
+        <v>140.80000000000001</v>
+      </c>
+      <c r="I32" s="3">
         <v>843.55</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="3">
         <v>1481</v>
       </c>
-      <c r="K32">
-        <v>21.007</v>
-      </c>
-      <c r="L32">
+      <c r="K32" s="3">
+        <v>21.007000000000001</v>
+      </c>
+      <c r="L32" s="3">
         <v>564.75</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
@@ -2006,16 +2076,16 @@
         <v>1281.3</v>
       </c>
       <c r="E33">
-        <v>157.925</v>
+        <v>157.92500000000001</v>
       </c>
       <c r="F33">
         <v>41.51</v>
       </c>
       <c r="G33">
-        <v>3.841</v>
+        <v>3.8410000000000002</v>
       </c>
       <c r="H33">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="I33">
         <v>874.65</v>
@@ -2024,18 +2094,18 @@
         <v>1465.7</v>
       </c>
       <c r="K33">
-        <v>20.373</v>
+        <v>20.373000000000001</v>
       </c>
       <c r="L33">
         <v>530.25</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B34">
-        <v>95.95999999999999</v>
+        <v>95.96</v>
       </c>
       <c r="C34">
         <v>359</v>
@@ -2050,10 +2120,10 @@
         <v>51.1</v>
       </c>
       <c r="G34">
-        <v>4.065</v>
+        <v>4.0650000000000004</v>
       </c>
       <c r="H34">
-        <v>148.55</v>
+        <v>148.55000000000001</v>
       </c>
       <c r="I34">
         <v>908.65</v>
@@ -2068,7 +2138,7 @@
         <v>550.25</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
@@ -2082,13 +2152,13 @@
         <v>1210.5</v>
       </c>
       <c r="E35">
-        <v>160.45</v>
+        <v>160.44999999999999</v>
       </c>
       <c r="F35">
         <v>55.79</v>
       </c>
       <c r="G35">
-        <v>4.121</v>
+        <v>4.1210000000000004</v>
       </c>
       <c r="H35">
         <v>144.75</v>
@@ -2106,18 +2176,18 @@
         <v>477.75</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B36">
-        <v>80.54000000000001</v>
+        <v>80.540000000000006</v>
       </c>
       <c r="C36">
         <v>376.75</v>
       </c>
       <c r="D36">
-        <v>1171.1</v>
+        <v>1171.0999999999999</v>
       </c>
       <c r="E36">
         <v>169.5</v>
@@ -2126,7 +2196,7 @@
         <v>54.07</v>
       </c>
       <c r="G36">
-        <v>3.873</v>
+        <v>3.8730000000000002</v>
       </c>
       <c r="H36">
         <v>133.65</v>
@@ -2138,18 +2208,18 @@
         <v>1236.2</v>
       </c>
       <c r="K36">
-        <v>16.077</v>
+        <v>16.077000000000002</v>
       </c>
       <c r="L36">
         <v>532.5</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B37">
-        <v>66.15000000000001</v>
+        <v>66.150000000000006</v>
       </c>
       <c r="C37">
         <v>375.75</v>
@@ -2164,7 +2234,7 @@
         <v>58.27</v>
       </c>
       <c r="G37">
-        <v>4.088</v>
+        <v>4.0880000000000001</v>
       </c>
       <c r="H37">
         <v>148.85</v>
@@ -2173,16 +2243,16 @@
         <v>812.4</v>
       </c>
       <c r="J37">
-        <v>1210.4</v>
+        <v>1210.4000000000001</v>
       </c>
       <c r="K37">
-        <v>15.489</v>
+        <v>15.489000000000001</v>
       </c>
       <c r="L37">
         <v>577.25</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -2193,7 +2263,7 @@
         <v>397</v>
       </c>
       <c r="D38">
-        <v>1183.9</v>
+        <v>1183.9000000000001</v>
       </c>
       <c r="E38">
         <v>165.7</v>
@@ -2202,16 +2272,16 @@
         <v>49.81</v>
       </c>
       <c r="G38">
-        <v>2.889</v>
+        <v>2.8889999999999998</v>
       </c>
       <c r="H38">
-        <v>140.05</v>
+        <v>140.05000000000001</v>
       </c>
       <c r="I38">
         <v>798.4</v>
       </c>
       <c r="J38">
-        <v>1208.9</v>
+        <v>1208.9000000000001</v>
       </c>
       <c r="K38">
         <v>15.565</v>
@@ -2220,7 +2290,7 @@
         <v>589.75</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
@@ -2240,7 +2310,7 @@
         <v>45.86</v>
       </c>
       <c r="G39">
-        <v>2.691</v>
+        <v>2.6909999999999998</v>
       </c>
       <c r="H39">
         <v>140</v>
@@ -2258,7 +2328,7 @@
         <v>502.75</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -2269,7 +2339,7 @@
         <v>384.5</v>
       </c>
       <c r="D40">
-        <v>1212.6</v>
+        <v>1212.5999999999999</v>
       </c>
       <c r="E40">
         <v>158</v>
@@ -2290,13 +2360,13 @@
         <v>1186.7</v>
       </c>
       <c r="K40">
-        <v>16.513</v>
+        <v>16.513000000000002</v>
       </c>
       <c r="L40">
         <v>517.5</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>51</v>
       </c>
@@ -2307,10 +2377,10 @@
         <v>376.25</v>
       </c>
       <c r="D41">
-        <v>1183.1</v>
+        <v>1183.0999999999999</v>
       </c>
       <c r="E41">
-        <v>161.325</v>
+        <v>161.32499999999999</v>
       </c>
       <c r="F41">
         <v>45.89</v>
@@ -2325,7 +2395,7 @@
         <v>735</v>
       </c>
       <c r="J41">
-        <v>1142.6</v>
+        <v>1142.5999999999999</v>
       </c>
       <c r="K41">
         <v>16.581</v>
@@ -2334,7 +2404,7 @@
         <v>511.75</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -2345,7 +2415,7 @@
         <v>362.5</v>
       </c>
       <c r="D42">
-        <v>1182.4</v>
+        <v>1182.4000000000001</v>
       </c>
       <c r="E42">
         <v>159.5</v>
@@ -2354,7 +2424,7 @@
         <v>41.94</v>
       </c>
       <c r="G42">
-        <v>2.751</v>
+        <v>2.7509999999999999</v>
       </c>
       <c r="H42">
         <v>109.4</v>
@@ -2363,16 +2433,16 @@
         <v>776.5</v>
       </c>
       <c r="J42">
-        <v>1139.9</v>
+        <v>1139.9000000000001</v>
       </c>
       <c r="K42">
-        <v>16.124</v>
+        <v>16.123999999999999</v>
       </c>
       <c r="L42">
         <v>467</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
@@ -2383,16 +2453,16 @@
         <v>351.5</v>
       </c>
       <c r="D43">
-        <v>1189.4</v>
+        <v>1189.4000000000001</v>
       </c>
       <c r="E43">
-        <v>152.325</v>
+        <v>152.32499999999999</v>
       </c>
       <c r="F43">
         <v>41.89</v>
       </c>
       <c r="G43">
-        <v>2.642</v>
+        <v>2.6419999999999999</v>
       </c>
       <c r="H43">
         <v>114.25</v>
@@ -2404,13 +2474,13 @@
         <v>1111</v>
       </c>
       <c r="K43">
-        <v>16.684</v>
+        <v>16.684000000000001</v>
       </c>
       <c r="L43">
         <v>477</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -2430,7 +2500,7 @@
         <v>42.13</v>
       </c>
       <c r="G44">
-        <v>2.832</v>
+        <v>2.8319999999999999</v>
       </c>
       <c r="H44">
         <v>114.9</v>
@@ -2439,7 +2509,7 @@
         <v>671.65</v>
       </c>
       <c r="J44">
-        <v>1078.6</v>
+        <v>1078.5999999999999</v>
       </c>
       <c r="K44">
         <v>15.551</v>
@@ -2448,7 +2518,7 @@
         <v>614.75</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
@@ -2459,16 +2529,16 @@
         <v>371</v>
       </c>
       <c r="D45">
-        <v>1094.9</v>
+        <v>1094.9000000000001</v>
       </c>
       <c r="E45">
-        <v>145.7</v>
+        <v>145.69999999999999</v>
       </c>
       <c r="F45">
         <v>42.35</v>
       </c>
       <c r="G45">
-        <v>2.716</v>
+        <v>2.7160000000000002</v>
       </c>
       <c r="H45">
         <v>123.6</v>
@@ -2486,7 +2556,7 @@
         <v>499.25</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -2497,22 +2567,22 @@
         <v>363.75</v>
       </c>
       <c r="D46">
-        <v>1131.6</v>
+        <v>1131.5999999999999</v>
       </c>
       <c r="E46">
         <v>145.5</v>
       </c>
       <c r="F46">
-        <v>40.88</v>
+        <v>40.880000000000003</v>
       </c>
       <c r="G46">
-        <v>2.689</v>
+        <v>2.6890000000000001</v>
       </c>
       <c r="H46">
         <v>129.6</v>
       </c>
       <c r="I46">
-        <v>601.55</v>
+        <v>601.54999999999995</v>
       </c>
       <c r="J46">
         <v>1010.1</v>
@@ -2524,7 +2594,7 @@
         <v>482.5</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
@@ -2562,7 +2632,7 @@
         <v>512.75</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
@@ -2579,10 +2649,10 @@
         <v>139.25</v>
       </c>
       <c r="F48">
-        <v>39.45</v>
+        <v>39.450000000000003</v>
       </c>
       <c r="G48">
-        <v>2.321</v>
+        <v>2.3210000000000002</v>
       </c>
       <c r="H48">
         <v>134.65</v>
@@ -2594,13 +2664,13 @@
         <v>988.6</v>
       </c>
       <c r="K48">
-        <v>15.566</v>
+        <v>15.566000000000001</v>
       </c>
       <c r="L48">
         <v>522</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -2614,19 +2684,19 @@
         <v>1065.8</v>
       </c>
       <c r="E49">
-        <v>130.05</v>
+        <v>130.05000000000001</v>
       </c>
       <c r="F49">
         <v>38.65</v>
       </c>
       <c r="G49">
-        <v>2.235</v>
+        <v>2.2349999999999999</v>
       </c>
       <c r="H49">
         <v>141.75</v>
       </c>
       <c r="I49">
-        <v>541.95</v>
+        <v>541.95000000000005</v>
       </c>
       <c r="J49">
         <v>832.3</v>
@@ -2638,7 +2708,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
@@ -2652,19 +2722,19 @@
         <v>1060.3</v>
       </c>
       <c r="E50">
-        <v>135.8</v>
+        <v>135.80000000000001</v>
       </c>
       <c r="F50">
-        <v>33.13</v>
+        <v>33.130000000000003</v>
       </c>
       <c r="G50">
-        <v>2.337</v>
+        <v>2.3370000000000002</v>
       </c>
       <c r="H50">
         <v>140</v>
       </c>
       <c r="I50">
-        <v>560.8</v>
+        <v>560.79999999999995</v>
       </c>
       <c r="J50">
         <v>891.7</v>
@@ -2676,21 +2746,21 @@
         <v>470</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B51">
-        <v>33.62</v>
+        <v>33.619999999999997</v>
       </c>
       <c r="C51">
         <v>372</v>
       </c>
       <c r="D51">
-        <v>1116.4</v>
+        <v>1116.4000000000001</v>
       </c>
       <c r="E51">
-        <v>135.3</v>
+        <v>135.30000000000001</v>
       </c>
       <c r="F51">
         <v>30.59</v>
@@ -2708,13 +2778,13 @@
         <v>872.3</v>
       </c>
       <c r="K51">
-        <v>14.229</v>
+        <v>14.228999999999999</v>
       </c>
       <c r="L51">
         <v>479.25</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
@@ -2725,7 +2795,7 @@
         <v>353.5</v>
       </c>
       <c r="D52">
-        <v>1233.9</v>
+        <v>1233.9000000000001</v>
       </c>
       <c r="E52">
         <v>139.5</v>
@@ -2734,7 +2804,7 @@
         <v>29.34</v>
       </c>
       <c r="G52">
-        <v>1.711</v>
+        <v>1.7110000000000001</v>
       </c>
       <c r="H52">
         <v>121.4</v>
@@ -2746,18 +2816,18 @@
         <v>933.7</v>
       </c>
       <c r="K52">
-        <v>14.896</v>
+        <v>14.896000000000001</v>
       </c>
       <c r="L52">
         <v>445</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B53">
-        <v>38.34</v>
+        <v>38.340000000000003</v>
       </c>
       <c r="C53">
         <v>351.5</v>
@@ -2766,19 +2836,19 @@
         <v>1234.2</v>
       </c>
       <c r="E53">
-        <v>132.925</v>
+        <v>132.92500000000001</v>
       </c>
       <c r="F53">
         <v>28.02</v>
       </c>
       <c r="G53">
-        <v>1.959</v>
+        <v>1.9590000000000001</v>
       </c>
       <c r="H53">
-        <v>147.2</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="I53">
-        <v>563.05</v>
+        <v>563.04999999999995</v>
       </c>
       <c r="J53">
         <v>976.6</v>
@@ -2790,7 +2860,7 @@
         <v>473.5</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>64</v>
       </c>
@@ -2810,7 +2880,7 @@
         <v>28.61</v>
       </c>
       <c r="G54">
-        <v>2.178</v>
+        <v>2.1779999999999999</v>
       </c>
       <c r="H54">
         <v>124.55</v>
@@ -2819,16 +2889,16 @@
         <v>627.9</v>
       </c>
       <c r="J54">
-        <v>1077.9</v>
+        <v>1077.9000000000001</v>
       </c>
       <c r="K54">
-        <v>17.789</v>
+        <v>17.789000000000001</v>
       </c>
       <c r="L54">
         <v>478</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>65</v>
       </c>
@@ -2845,13 +2915,13 @@
         <v>121.1</v>
       </c>
       <c r="F55">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="G55">
-        <v>2.288</v>
+        <v>2.2879999999999998</v>
       </c>
       <c r="H55">
-        <v>152.55</v>
+        <v>152.55000000000001</v>
       </c>
       <c r="I55">
         <v>547.75</v>
@@ -2866,7 +2936,7 @@
         <v>464.5</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>66</v>
       </c>
@@ -2886,7 +2956,7 @@
         <v>34.71</v>
       </c>
       <c r="G56">
-        <v>2.924</v>
+        <v>2.9239999999999999</v>
       </c>
       <c r="H56">
         <v>177.15</v>
@@ -2898,13 +2968,13 @@
         <v>1021.5</v>
       </c>
       <c r="K56">
-        <v>18.582</v>
+        <v>18.582000000000001</v>
       </c>
       <c r="L56">
         <v>431.25</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>67</v>
       </c>
@@ -2921,10 +2991,10 @@
         <v>113.075</v>
       </c>
       <c r="F57">
-        <v>36.62</v>
+        <v>36.619999999999997</v>
       </c>
       <c r="G57">
-        <v>2.876</v>
+        <v>2.8759999999999999</v>
       </c>
       <c r="H57">
         <v>174.65</v>
@@ -2936,13 +3006,13 @@
         <v>1147.3</v>
       </c>
       <c r="K57">
-        <v>20.312</v>
+        <v>20.312000000000001</v>
       </c>
       <c r="L57">
         <v>407.75</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>68</v>
       </c>
@@ -2953,13 +3023,13 @@
         <v>301.5</v>
       </c>
       <c r="D58">
-        <v>1306.9</v>
+        <v>1306.9000000000001</v>
       </c>
       <c r="E58">
         <v>111.95</v>
       </c>
       <c r="F58">
-        <v>32.05</v>
+        <v>32.049999999999997</v>
       </c>
       <c r="G58">
         <v>2.887</v>
@@ -2980,7 +3050,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>69</v>
       </c>
@@ -2994,13 +3064,13 @@
         <v>1313.3</v>
       </c>
       <c r="E59">
-        <v>98.90000000000001</v>
+        <v>98.9</v>
       </c>
       <c r="F59">
         <v>41</v>
       </c>
       <c r="G59">
-        <v>2.906</v>
+        <v>2.9060000000000001</v>
       </c>
       <c r="H59">
         <v>205</v>
@@ -3009,16 +3079,16 @@
         <v>720.5</v>
       </c>
       <c r="J59">
-        <v>1028.6</v>
+        <v>1028.5999999999999</v>
       </c>
       <c r="K59">
-        <v>19.139</v>
+        <v>19.138999999999999</v>
       </c>
       <c r="L59">
         <v>402</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>70</v>
       </c>
@@ -3038,13 +3108,13 @@
         <v>50.92</v>
       </c>
       <c r="G60">
-        <v>3.026</v>
+        <v>3.0259999999999998</v>
       </c>
       <c r="H60">
         <v>221.95</v>
       </c>
       <c r="I60">
-        <v>617.45</v>
+        <v>617.45000000000005</v>
       </c>
       <c r="J60">
         <v>975.8</v>
@@ -3056,7 +3126,7 @@
         <v>416.25</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
@@ -3076,7 +3146,7 @@
         <v>49.5</v>
       </c>
       <c r="G61">
-        <v>3.352</v>
+        <v>3.3519999999999999</v>
       </c>
       <c r="H61">
         <v>217.6</v>
@@ -3088,13 +3158,13 @@
         <v>908.1</v>
       </c>
       <c r="K61">
-        <v>16.406</v>
+        <v>16.405999999999999</v>
       </c>
       <c r="L61">
         <v>380.5</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
@@ -3114,7 +3184,7 @@
         <v>53.63</v>
       </c>
       <c r="G62">
-        <v>3.724</v>
+        <v>3.7240000000000002</v>
       </c>
       <c r="H62">
         <v>198.1</v>
@@ -3132,7 +3202,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
@@ -3143,7 +3213,7 @@
         <v>359.75</v>
       </c>
       <c r="D63">
-        <v>1208.6</v>
+        <v>1208.5999999999999</v>
       </c>
       <c r="E63">
         <v>115.6</v>
@@ -3170,7 +3240,7 @@
         <v>420.75</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>74</v>
       </c>
@@ -3181,7 +3251,7 @@
         <v>366.75</v>
       </c>
       <c r="D64">
-        <v>1252.6</v>
+        <v>1252.5999999999999</v>
       </c>
       <c r="E64">
         <v>126.6</v>
@@ -3202,13 +3272,13 @@
         <v>1029.5</v>
       </c>
       <c r="K64">
-        <v>18.42</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="L64">
         <v>424.75</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,13 +3310,13 @@
         <v>948.2</v>
       </c>
       <c r="K65">
-        <v>18.235</v>
+        <v>18.234999999999999</v>
       </c>
       <c r="L65">
         <v>426.5</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>76</v>
       </c>
@@ -3257,16 +3327,16 @@
         <v>358</v>
       </c>
       <c r="D66">
-        <v>1266.1</v>
+        <v>1266.0999999999999</v>
       </c>
       <c r="E66">
         <v>138</v>
       </c>
       <c r="F66">
-        <v>38.16</v>
+        <v>38.159999999999997</v>
       </c>
       <c r="G66">
-        <v>3.276</v>
+        <v>3.2759999999999998</v>
       </c>
       <c r="H66">
         <v>158.1</v>
@@ -3278,13 +3348,13 @@
         <v>946.3</v>
       </c>
       <c r="K66">
-        <v>17.191</v>
+        <v>17.190999999999999</v>
       </c>
       <c r="L66">
         <v>418.5</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>77</v>
       </c>
@@ -3304,10 +3374,10 @@
         <v>37.1</v>
       </c>
       <c r="G67">
-        <v>3.071</v>
+        <v>3.0710000000000002</v>
       </c>
       <c r="H67">
-        <v>133.55</v>
+        <v>133.55000000000001</v>
       </c>
       <c r="I67">
         <v>819.85</v>
@@ -3316,13 +3386,13 @@
         <v>948.5</v>
       </c>
       <c r="K67">
-        <v>17.368</v>
+        <v>17.367999999999999</v>
       </c>
       <c r="L67">
         <v>429.25</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>78</v>
       </c>
@@ -3339,10 +3409,10 @@
         <v>119.1</v>
       </c>
       <c r="F68">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="G68">
-        <v>3.035</v>
+        <v>3.0350000000000001</v>
       </c>
       <c r="H68">
         <v>129.85</v>
@@ -3354,13 +3424,13 @@
         <v>923.7</v>
       </c>
       <c r="K68">
-        <v>16.568</v>
+        <v>16.568000000000001</v>
       </c>
       <c r="L68">
         <v>511</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>79</v>
       </c>
@@ -3371,7 +3441,7 @@
         <v>370.75</v>
       </c>
       <c r="D69">
-        <v>1266.6</v>
+        <v>1266.5999999999999</v>
       </c>
       <c r="E69">
         <v>112</v>
@@ -3398,7 +3468,7 @@
         <v>474.5</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>80</v>
       </c>
@@ -3412,7 +3482,7 @@
         <v>1316.2</v>
       </c>
       <c r="E70">
-        <v>104.525</v>
+        <v>104.52500000000001</v>
       </c>
       <c r="F70">
         <v>44.91</v>
@@ -3436,7 +3506,7 @@
         <v>410.25</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>81</v>
       </c>
@@ -3456,7 +3526,7 @@
         <v>47.32</v>
       </c>
       <c r="G71">
-        <v>3.007</v>
+        <v>3.0070000000000001</v>
       </c>
       <c r="H71">
         <v>148.35</v>
@@ -3468,13 +3538,13 @@
         <v>910.3</v>
       </c>
       <c r="K71">
-        <v>16.607</v>
+        <v>16.606999999999999</v>
       </c>
       <c r="L71">
         <v>448.25</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>82</v>
       </c>
@@ -3494,7 +3564,7 @@
         <v>50.38</v>
       </c>
       <c r="G72">
-        <v>2.896</v>
+        <v>2.8959999999999999</v>
       </c>
       <c r="H72">
         <v>156.25</v>
@@ -3512,7 +3582,7 @@
         <v>418.5</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>83</v>
       </c>
@@ -3532,7 +3602,7 @@
         <v>56.7</v>
       </c>
       <c r="G73">
-        <v>3.025</v>
+        <v>3.0249999999999999</v>
       </c>
       <c r="H73">
         <v>160.1</v>
@@ -3544,13 +3614,13 @@
         <v>941.3</v>
       </c>
       <c r="K73">
-        <v>16.382</v>
+        <v>16.382000000000001</v>
       </c>
       <c r="L73">
         <v>409.25</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>84</v>
       </c>
@@ -3570,7 +3640,7 @@
         <v>56.43</v>
       </c>
       <c r="G74">
-        <v>2.953</v>
+        <v>2.9529999999999998</v>
       </c>
       <c r="H74">
         <v>136</v>
@@ -3582,13 +3652,13 @@
         <v>934.2</v>
       </c>
       <c r="K74">
-        <v>17.06</v>
+        <v>17.059999999999999</v>
       </c>
       <c r="L74">
         <v>427</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>85</v>
       </c>
@@ -3608,10 +3678,10 @@
         <v>48.95</v>
       </c>
       <c r="G75">
-        <v>2.995</v>
+        <v>2.9950000000000001</v>
       </c>
       <c r="H75">
-        <v>148.7</v>
+        <v>148.69999999999999</v>
       </c>
       <c r="I75">
         <v>1027.5</v>
@@ -3620,13 +3690,13 @@
         <v>1001.3</v>
       </c>
       <c r="K75">
-        <v>17.204</v>
+        <v>17.204000000000001</v>
       </c>
       <c r="L75">
         <v>451.75</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>86</v>
       </c>
@@ -3646,7 +3716,7 @@
         <v>46.67</v>
       </c>
       <c r="G76">
-        <v>2.667</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="H76">
         <v>143.4</v>
@@ -3658,13 +3728,13 @@
         <v>986.6</v>
       </c>
       <c r="K76">
-        <v>16.324</v>
+        <v>16.324000000000002</v>
       </c>
       <c r="L76">
         <v>484.5</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>87</v>
       </c>
@@ -3684,7 +3754,7 @@
         <v>47.36</v>
       </c>
       <c r="G77">
-        <v>2.733</v>
+        <v>2.7330000000000001</v>
       </c>
       <c r="H77">
         <v>141.1</v>
@@ -3696,18 +3766,18 @@
         <v>927.3</v>
       </c>
       <c r="K77">
-        <v>16.223</v>
+        <v>16.222999999999999</v>
       </c>
       <c r="L77">
         <v>451</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B78">
-        <v>68.56999999999999</v>
+        <v>68.569999999999993</v>
       </c>
       <c r="C78">
         <v>392.5</v>
@@ -3722,10 +3792,10 @@
         <v>53.09</v>
       </c>
       <c r="G78">
-        <v>2.763</v>
+        <v>2.7629999999999999</v>
       </c>
       <c r="H78">
-        <v>154.95</v>
+        <v>154.94999999999999</v>
       </c>
       <c r="I78">
         <v>962.75</v>
@@ -3734,24 +3804,24 @@
         <v>899</v>
       </c>
       <c r="K78">
-        <v>16.312</v>
+        <v>16.312000000000001</v>
       </c>
       <c r="L78">
         <v>512.5</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B79">
-        <v>67.04000000000001</v>
+        <v>67.040000000000006</v>
       </c>
       <c r="C79">
         <v>394</v>
       </c>
       <c r="D79">
-        <v>1300.1</v>
+        <v>1300.0999999999999</v>
       </c>
       <c r="E79">
         <v>105.05</v>
@@ -3763,7 +3833,7 @@
         <v>2.952</v>
       </c>
       <c r="H79">
-        <v>161.8</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="I79">
         <v>988.9</v>
@@ -3772,18 +3842,18 @@
         <v>908.1</v>
       </c>
       <c r="K79">
-        <v>16.402</v>
+        <v>16.402000000000001</v>
       </c>
       <c r="L79">
         <v>526.25</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B80">
-        <v>74.15000000000001</v>
+        <v>74.150000000000006</v>
       </c>
       <c r="C80">
         <v>350.25</v>
@@ -3798,10 +3868,10 @@
         <v>55.24</v>
       </c>
       <c r="G80">
-        <v>2.924</v>
+        <v>2.9239999999999999</v>
       </c>
       <c r="H80">
-        <v>159.55</v>
+        <v>159.55000000000001</v>
       </c>
       <c r="I80">
         <v>958.3</v>
@@ -3810,18 +3880,18 @@
         <v>852.4</v>
       </c>
       <c r="K80">
-        <v>16.104</v>
+        <v>16.103999999999999</v>
       </c>
       <c r="L80">
         <v>497.5</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B81">
-        <v>68.76000000000001</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="C81">
         <v>372.25</v>
@@ -3854,7 +3924,7 @@
         <v>553.75</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>92</v>
       </c>
@@ -3871,10 +3941,10 @@
         <v>106.8</v>
       </c>
       <c r="F82">
-        <v>67.79000000000001</v>
+        <v>67.790000000000006</v>
       </c>
       <c r="G82">
-        <v>2.916</v>
+        <v>2.9159999999999999</v>
       </c>
       <c r="H82">
         <v>157.85</v>
@@ -3886,13 +3956,13 @@
         <v>785.9</v>
       </c>
       <c r="K82">
-        <v>14.438</v>
+        <v>14.438000000000001</v>
       </c>
       <c r="L82">
         <v>518.5</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>93</v>
       </c>
@@ -3924,13 +3994,13 @@
         <v>818.7</v>
       </c>
       <c r="K83">
-        <v>14.623</v>
+        <v>14.622999999999999</v>
       </c>
       <c r="L83">
         <v>509</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>94</v>
       </c>
@@ -3947,28 +4017,28 @@
         <v>115.85</v>
       </c>
       <c r="F84">
-        <v>68.18000000000001</v>
+        <v>68.180000000000007</v>
       </c>
       <c r="G84">
-        <v>3.261</v>
+        <v>3.2610000000000001</v>
       </c>
       <c r="H84">
-        <v>135.7</v>
+        <v>135.69999999999999</v>
       </c>
       <c r="I84">
-        <v>1085.1</v>
+        <v>1085.0999999999999</v>
       </c>
       <c r="J84">
         <v>839.4</v>
       </c>
       <c r="K84">
-        <v>14.229</v>
+        <v>14.228999999999999</v>
       </c>
       <c r="L84">
         <v>500.5</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>95</v>
       </c>
@@ -3985,28 +4055,28 @@
         <v>116.925</v>
       </c>
       <c r="F85">
-        <v>67.54000000000001</v>
+        <v>67.540000000000006</v>
       </c>
       <c r="G85">
-        <v>4.612</v>
+        <v>4.6120000000000001</v>
       </c>
       <c r="H85">
-        <v>143.95</v>
+        <v>143.94999999999999</v>
       </c>
       <c r="I85">
-        <v>1168.6</v>
+        <v>1168.5999999999999</v>
       </c>
       <c r="J85">
         <v>798</v>
       </c>
       <c r="K85">
-        <v>14.094</v>
+        <v>14.093999999999999</v>
       </c>
       <c r="L85">
         <v>515.75</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>96</v>
       </c>
@@ -4032,7 +4102,7 @@
         <v>125.15</v>
       </c>
       <c r="I86">
-        <v>1253.9</v>
+        <v>1253.9000000000001</v>
       </c>
       <c r="J86">
         <v>795.9</v>
@@ -4044,7 +4114,7 @@
         <v>503.25</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>97</v>
       </c>
@@ -4064,7 +4134,7 @@
         <v>51.52</v>
       </c>
       <c r="G87">
-        <v>2.814</v>
+        <v>2.8140000000000001</v>
       </c>
       <c r="H87">
         <v>120.1</v>
@@ -4076,13 +4146,13 @@
         <v>820.5</v>
       </c>
       <c r="K87">
-        <v>16.022</v>
+        <v>16.021999999999998</v>
       </c>
       <c r="L87">
         <v>516.5</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>98</v>
       </c>
@@ -4096,13 +4166,13 @@
         <v>1312.8</v>
       </c>
       <c r="E88">
-        <v>129.95</v>
+        <v>129.94999999999999</v>
       </c>
       <c r="F88">
         <v>44.11</v>
       </c>
       <c r="G88">
-        <v>2.812</v>
+        <v>2.8119999999999998</v>
       </c>
       <c r="H88">
         <v>114.3</v>
@@ -4120,7 +4190,7 @@
         <v>452.5</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>99</v>
       </c>
@@ -4140,7 +4210,7 @@
         <v>34.61</v>
       </c>
       <c r="G89">
-        <v>2.662</v>
+        <v>2.6619999999999999</v>
       </c>
       <c r="H89">
         <v>119.9</v>
@@ -4158,7 +4228,7 @@
         <v>457.75</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>100</v>
       </c>
@@ -4175,10 +4245,10 @@
         <v>123.75</v>
       </c>
       <c r="F90">
-        <v>33.66</v>
+        <v>33.659999999999997</v>
       </c>
       <c r="G90">
-        <v>2.575</v>
+        <v>2.5750000000000002</v>
       </c>
       <c r="H90">
         <v>94.8</v>
@@ -4196,7 +4266,7 @@
         <v>418.5</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>101</v>
       </c>
@@ -4210,13 +4280,13 @@
         <v>1305.8</v>
       </c>
       <c r="E91">
-        <v>108.475</v>
+        <v>108.47499999999999</v>
       </c>
       <c r="F91">
         <v>27.57</v>
       </c>
       <c r="G91">
-        <v>2.454</v>
+        <v>2.4540000000000002</v>
       </c>
       <c r="H91">
         <v>108.4</v>
@@ -4234,7 +4304,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>102</v>
       </c>
@@ -4254,7 +4324,7 @@
         <v>25.65</v>
       </c>
       <c r="G92">
-        <v>2.308</v>
+        <v>2.3079999999999998</v>
       </c>
       <c r="H92">
         <v>100.95</v>
@@ -4272,7 +4342,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>103</v>
       </c>
@@ -4292,7 +4362,7 @@
         <v>29.76</v>
       </c>
       <c r="G93">
-        <v>2.233</v>
+        <v>2.2330000000000001</v>
       </c>
       <c r="H93">
         <v>103.45</v>
@@ -4310,7 +4380,7 @@
         <v>487.25</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>104</v>
       </c>
@@ -4330,7 +4400,7 @@
         <v>33.03</v>
       </c>
       <c r="G94">
-        <v>2.285</v>
+        <v>2.2850000000000001</v>
       </c>
       <c r="H94">
         <v>100.5</v>
@@ -4342,13 +4412,13 @@
         <v>929.6</v>
       </c>
       <c r="K94">
-        <v>18.185</v>
+        <v>18.184999999999999</v>
       </c>
       <c r="L94">
         <v>451.25</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>105</v>
       </c>
@@ -4386,7 +4456,7 @@
         <v>495.75</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>106</v>
       </c>
@@ -4409,7 +4479,7 @@
         <v>2.633</v>
       </c>
       <c r="H96">
-        <v>95.84999999999999</v>
+        <v>95.85</v>
       </c>
       <c r="I96">
         <v>1758.1</v>
@@ -4418,13 +4488,13 @@
         <v>930</v>
       </c>
       <c r="K96">
-        <v>18.014</v>
+        <v>18.013999999999999</v>
       </c>
       <c r="L96">
         <v>508.75</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>107</v>
       </c>
@@ -4444,10 +4514,10 @@
         <v>42.76</v>
       </c>
       <c r="G97">
-        <v>2.281</v>
+        <v>2.2810000000000001</v>
       </c>
       <c r="H97">
-        <v>98.59999999999999</v>
+        <v>98.6</v>
       </c>
       <c r="I97">
         <v>1815.6</v>
@@ -4456,13 +4526,13 @@
         <v>897.9</v>
       </c>
       <c r="K97">
-        <v>16.969</v>
+        <v>16.969000000000001</v>
       </c>
       <c r="L97">
         <v>547.5</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>108</v>
       </c>
@@ -4482,7 +4552,7 @@
         <v>31.07</v>
       </c>
       <c r="G98">
-        <v>2.189</v>
+        <v>2.1890000000000001</v>
       </c>
       <c r="H98">
         <v>97.2</v>
@@ -4494,13 +4564,13 @@
         <v>971.4</v>
       </c>
       <c r="K98">
-        <v>17.828</v>
+        <v>17.827999999999999</v>
       </c>
       <c r="L98">
         <v>558.75</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>109</v>
       </c>
@@ -4532,13 +4602,13 @@
         <v>959.2</v>
       </c>
       <c r="K99">
-        <v>17.972</v>
+        <v>17.972000000000001</v>
       </c>
       <c r="L99">
         <v>553.75</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>110</v>
       </c>
@@ -4558,13 +4628,13 @@
         <v>21.7</v>
       </c>
       <c r="G100">
-        <v>1.684</v>
+        <v>1.6839999999999999</v>
       </c>
       <c r="H100">
         <v>101.85</v>
       </c>
       <c r="I100">
-        <v>2508.8</v>
+        <v>2508.8000000000002</v>
       </c>
       <c r="J100">
         <v>862.8</v>
@@ -4576,7 +4646,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>111</v>
       </c>
@@ -4593,7 +4663,7 @@
         <v>101.825</v>
       </c>
       <c r="F101">
-        <v>16.33</v>
+        <v>16.329999999999998</v>
       </c>
       <c r="G101">
         <v>1.64</v>
@@ -4602,19 +4672,19 @@
         <v>120.2</v>
       </c>
       <c r="I101">
-        <v>2333.3</v>
+        <v>2333.3000000000002</v>
       </c>
       <c r="J101">
         <v>724.4</v>
       </c>
       <c r="K101">
-        <v>14.098</v>
+        <v>14.098000000000001</v>
       </c>
       <c r="L101">
         <v>568.75</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>112</v>
       </c>
@@ -4634,7 +4704,7 @@
         <v>13.87</v>
       </c>
       <c r="G102">
-        <v>1.949</v>
+        <v>1.9490000000000001</v>
       </c>
       <c r="H102">
         <v>108.3</v>
@@ -4652,7 +4722,7 @@
         <v>529.75</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>113</v>
       </c>
@@ -4666,10 +4736,10 @@
         <v>1736.9</v>
       </c>
       <c r="E103">
-        <v>99.72499999999999</v>
+        <v>99.724999999999994</v>
       </c>
       <c r="F103">
-        <v>9.630000000000001</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="G103">
         <v>1.849</v>
@@ -4684,18 +4754,18 @@
         <v>870.5</v>
       </c>
       <c r="K103">
-        <v>18.44</v>
+        <v>18.440000000000001</v>
       </c>
       <c r="L103">
         <v>520.75</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B104">
-        <v>39.27</v>
+        <v>39.270000000000003</v>
       </c>
       <c r="C104">
         <v>338.5</v>
@@ -4704,13 +4774,13 @@
         <v>1793</v>
       </c>
       <c r="E104">
-        <v>91.65000000000001</v>
+        <v>91.65</v>
       </c>
       <c r="F104">
         <v>16.22</v>
       </c>
       <c r="G104">
-        <v>1.751</v>
+        <v>1.7509999999999999</v>
       </c>
       <c r="H104">
         <v>127.3</v>
@@ -4728,12 +4798,12 @@
         <v>490</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B105">
-        <v>40.27</v>
+        <v>40.270000000000003</v>
       </c>
       <c r="C105">
         <v>316</v>
@@ -4748,13 +4818,13 @@
         <v>15.64</v>
       </c>
       <c r="G105">
-        <v>1.799</v>
+        <v>1.7989999999999999</v>
       </c>
       <c r="H105">
         <v>121.75</v>
       </c>
       <c r="I105">
-        <v>2135.3</v>
+        <v>2135.3000000000002</v>
       </c>
       <c r="J105">
         <v>912.2</v>
@@ -4766,7 +4836,7 @@
         <v>531.25</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>116</v>
       </c>
@@ -4798,13 +4868,13 @@
         <v>935.7</v>
       </c>
       <c r="K106">
-        <v>28.437</v>
+        <v>28.437000000000001</v>
       </c>
       <c r="L106">
         <v>544.25</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>117</v>
       </c>
@@ -4824,13 +4894,13 @@
         <v>37</v>
       </c>
       <c r="G107">
-        <v>2.527</v>
+        <v>2.5270000000000001</v>
       </c>
       <c r="H107">
         <v>113.7</v>
       </c>
       <c r="I107">
-        <v>2321.3</v>
+        <v>2321.3000000000002</v>
       </c>
       <c r="J107">
         <v>901</v>
@@ -4842,7 +4912,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>118</v>
       </c>
@@ -4856,31 +4926,31 @@
         <v>1877.4</v>
       </c>
       <c r="E108">
-        <v>105.975</v>
+        <v>105.97499999999999</v>
       </c>
       <c r="F108">
         <v>41.5</v>
       </c>
       <c r="G108">
-        <v>3.354</v>
+        <v>3.3540000000000001</v>
       </c>
       <c r="H108">
         <v>117.95</v>
       </c>
       <c r="I108">
-        <v>2210.3</v>
+        <v>2210.3000000000002</v>
       </c>
       <c r="J108">
         <v>844.6</v>
       </c>
       <c r="K108">
-        <v>23.617</v>
+        <v>23.617000000000001</v>
       </c>
       <c r="L108">
         <v>598.5</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>119</v>
       </c>
@@ -4900,25 +4970,25 @@
         <v>43.67</v>
       </c>
       <c r="G109">
-        <v>2.882</v>
+        <v>2.8820000000000001</v>
       </c>
       <c r="H109">
         <v>128.75</v>
       </c>
       <c r="I109">
-        <v>2392.8</v>
+        <v>2392.8000000000002</v>
       </c>
       <c r="J109">
         <v>964.1</v>
       </c>
       <c r="K109">
-        <v>22.534</v>
+        <v>22.533999999999999</v>
       </c>
       <c r="L109">
         <v>580.25</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>120</v>
       </c>
@@ -4938,7 +5008,7 @@
         <v>56.4</v>
       </c>
       <c r="G110">
-        <v>2.539</v>
+        <v>2.5390000000000001</v>
       </c>
       <c r="H110">
         <v>123.25</v>
@@ -4947,16 +5017,16 @@
         <v>2448.5</v>
       </c>
       <c r="J110">
-        <v>1075.4</v>
+        <v>1075.4000000000001</v>
       </c>
       <c r="K110">
-        <v>26.332</v>
+        <v>26.332000000000001</v>
       </c>
       <c r="L110">
         <v>640.5</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>121</v>
       </c>
@@ -4976,7 +5046,7 @@
         <v>53.15</v>
       </c>
       <c r="G111">
-        <v>2.564</v>
+        <v>2.5640000000000001</v>
       </c>
       <c r="H111">
         <v>110.6</v>
@@ -4994,7 +5064,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>122</v>
       </c>
@@ -5014,7 +5084,7 @@
         <v>39.79</v>
       </c>
       <c r="G112">
-        <v>2.771</v>
+        <v>2.7709999999999999</v>
       </c>
       <c r="H112">
         <v>106.75</v>
@@ -5026,13 +5096,13 @@
         <v>1183.5</v>
       </c>
       <c r="K112">
-        <v>26.402</v>
+        <v>26.402000000000001</v>
       </c>
       <c r="L112">
         <v>655</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>123</v>
       </c>
@@ -5046,13 +5116,13 @@
         <v>1713.8</v>
       </c>
       <c r="E113">
-        <v>120.975</v>
+        <v>120.97499999999999</v>
       </c>
       <c r="F113">
         <v>46.8</v>
       </c>
       <c r="G113">
-        <v>2.608</v>
+        <v>2.6080000000000001</v>
       </c>
       <c r="H113">
         <v>110.6</v>
@@ -5064,13 +5134,13 @@
         <v>1188.5</v>
       </c>
       <c r="K113">
-        <v>24.517</v>
+        <v>24.516999999999999</v>
       </c>
       <c r="L113">
         <v>618</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>124</v>
       </c>
@@ -5102,18 +5172,18 @@
         <v>1203</v>
       </c>
       <c r="K114">
-        <v>25.853</v>
+        <v>25.853000000000002</v>
       </c>
       <c r="L114">
         <v>742.5</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B115">
-        <v>66.31999999999999</v>
+        <v>66.319999999999993</v>
       </c>
       <c r="C115">
         <v>656.75</v>
@@ -5128,7 +5198,7 @@
         <v>60.68</v>
       </c>
       <c r="G115">
-        <v>2.986</v>
+        <v>2.9860000000000002</v>
       </c>
       <c r="H115">
         <v>118.65</v>
@@ -5140,13 +5210,13 @@
         <v>1180.8</v>
       </c>
       <c r="K115">
-        <v>27.993</v>
+        <v>27.992999999999999</v>
       </c>
       <c r="L115">
         <v>663.5</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>126</v>
       </c>
@@ -5178,13 +5248,13 @@
         <v>1070.5</v>
       </c>
       <c r="K116">
-        <v>26.165</v>
+        <v>26.164999999999999</v>
       </c>
       <c r="L116">
         <v>671.5</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>127</v>
       </c>
@@ -5204,25 +5274,25 @@
         <v>103.75</v>
       </c>
       <c r="G117">
-        <v>3.914</v>
+        <v>3.9140000000000001</v>
       </c>
       <c r="H117">
-        <v>132.95</v>
+        <v>132.94999999999999</v>
       </c>
       <c r="I117">
         <v>2655.8</v>
       </c>
       <c r="J117">
-        <v>1046.9</v>
+        <v>1046.9000000000001</v>
       </c>
       <c r="K117">
-        <v>25.528</v>
+        <v>25.527999999999999</v>
       </c>
       <c r="L117">
         <v>703.75</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>128</v>
       </c>
@@ -5242,13 +5312,13 @@
         <v>127.71</v>
       </c>
       <c r="G118">
-        <v>4.377</v>
+        <v>4.3769999999999998</v>
       </c>
       <c r="H118">
-        <v>134.55</v>
+        <v>134.55000000000001</v>
       </c>
       <c r="I118">
-        <v>2468.3</v>
+        <v>2468.3000000000002</v>
       </c>
       <c r="J118">
         <v>1013.9</v>
@@ -5260,7 +5330,7 @@
         <v>706.75</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>129</v>
       </c>
@@ -5292,18 +5362,18 @@
         <v>960.9</v>
       </c>
       <c r="K119">
-        <v>22.021</v>
+        <v>22.021000000000001</v>
       </c>
       <c r="L119">
         <v>725.5</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B120">
-        <v>83.56999999999999</v>
+        <v>83.57</v>
       </c>
       <c r="C120">
         <v>568.25</v>
@@ -5318,7 +5388,7 @@
         <v>165.98</v>
       </c>
       <c r="G120">
-        <v>5.426</v>
+        <v>5.4260000000000002</v>
       </c>
       <c r="H120">
         <v>120.35</v>
@@ -5336,12 +5406,12 @@
         <v>772.75</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B121">
-        <v>66.18000000000001</v>
+        <v>66.180000000000007</v>
       </c>
       <c r="C121">
         <v>567</v>
@@ -5356,7 +5426,7 @@
         <v>238.31</v>
       </c>
       <c r="G121">
-        <v>4.567</v>
+        <v>4.5670000000000002</v>
       </c>
       <c r="H121">
         <v>122.9</v>
@@ -5368,18 +5438,18 @@
         <v>926.6</v>
       </c>
       <c r="K121">
-        <v>22.765</v>
+        <v>22.765000000000001</v>
       </c>
       <c r="L121">
         <v>773.75</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B122">
-        <v>75.20999999999999</v>
+        <v>75.209999999999994</v>
       </c>
       <c r="C122">
         <v>593.25</v>
@@ -5397,7 +5467,7 @@
         <v>3.73</v>
       </c>
       <c r="H122">
-        <v>146.3</v>
+        <v>146.30000000000001</v>
       </c>
       <c r="I122">
         <v>1908.1</v>
@@ -5406,7 +5476,7 @@
         <v>964.4</v>
       </c>
       <c r="K122">
-        <v>23.328</v>
+        <v>23.327999999999999</v>
       </c>
       <c r="L122">
         <v>770.75</v>

--- a/Files/Futures_clean_CLOSE_pivot.xlsx
+++ b/Files/Futures_clean_CLOSE_pivot.xlsx
@@ -1,32 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c22f1ca899110f3/Dokumente/GitHub/AQM/Files/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_FFC65FC0FCD1EADC9C160B72138B56737AFA5551" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EC69521F-26A6-4652-9AA9-10DCD20BF0E6}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -435,8 +418,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,34 +471,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -557,7 +528,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -589,27 +560,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -641,24 +594,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -834,19 +769,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -884,7 +814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -904,7 +834,7 @@
         <v>54.31</v>
       </c>
       <c r="G2">
-        <v>2.9889999999999999</v>
+        <v>2.989</v>
       </c>
       <c r="H2">
         <v>169</v>
@@ -922,7 +852,7 @@
         <v>652.75</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -942,7 +872,7 @@
         <v>56.25</v>
       </c>
       <c r="G3">
-        <v>2.5030000000000001</v>
+        <v>2.503</v>
       </c>
       <c r="H3">
         <v>210</v>
@@ -954,13 +884,13 @@
         <v>1585.5</v>
       </c>
       <c r="K3">
-        <v>33.232999999999997</v>
+        <v>33.233</v>
       </c>
       <c r="L3">
         <v>666</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -980,7 +910,7 @@
         <v>59.38</v>
       </c>
       <c r="G4">
-        <v>2.6160000000000001</v>
+        <v>2.616</v>
       </c>
       <c r="H4">
         <v>190.55</v>
@@ -992,13 +922,13 @@
         <v>1691.1</v>
       </c>
       <c r="K4">
-        <v>34.582999999999998</v>
+        <v>34.583</v>
       </c>
       <c r="L4">
         <v>664.25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1018,7 +948,7 @@
         <v>61.5</v>
       </c>
       <c r="G5">
-        <v>2.1259999999999999</v>
+        <v>2.126</v>
       </c>
       <c r="H5">
         <v>164.5</v>
@@ -1030,13 +960,13 @@
         <v>1638.3</v>
       </c>
       <c r="K5">
-        <v>32.469000000000001</v>
+        <v>32.469</v>
       </c>
       <c r="L5">
         <v>660.75</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1056,7 +986,7 @@
         <v>57.87</v>
       </c>
       <c r="G6">
-        <v>2.2850000000000001</v>
+        <v>2.285</v>
       </c>
       <c r="H6">
         <v>140.85</v>
@@ -1074,7 +1004,7 @@
         <v>647.75</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1094,7 +1024,7 @@
         <v>53.98</v>
       </c>
       <c r="G7">
-        <v>2.4220000000000002</v>
+        <v>2.422</v>
       </c>
       <c r="H7">
         <v>112.05</v>
@@ -1112,12 +1042,12 @@
         <v>643.75</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B8">
-        <v>84.96</v>
+        <v>84.95999999999999</v>
       </c>
       <c r="C8">
         <v>672.5</v>
@@ -1132,13 +1062,13 @@
         <v>55.57</v>
       </c>
       <c r="G8">
-        <v>2.8239999999999998</v>
+        <v>2.824</v>
       </c>
       <c r="H8">
         <v>122.65</v>
       </c>
       <c r="I8">
-        <v>583.04999999999995</v>
+        <v>583.05</v>
       </c>
       <c r="J8">
         <v>1449.1</v>
@@ -1150,7 +1080,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1170,7 +1100,7 @@
         <v>54.69</v>
       </c>
       <c r="G9">
-        <v>3.2090000000000001</v>
+        <v>3.209</v>
       </c>
       <c r="H9">
         <v>109.9</v>
@@ -1188,7 +1118,7 @@
         <v>888.25</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1208,13 +1138,13 @@
         <v>58.91</v>
       </c>
       <c r="G10">
-        <v>2.7989999999999999</v>
+        <v>2.799</v>
       </c>
       <c r="H10">
         <v>131.9</v>
       </c>
       <c r="I10">
-        <v>627.95000000000005</v>
+        <v>627.95</v>
       </c>
       <c r="J10">
         <v>1536.3</v>
@@ -1226,7 +1156,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1258,18 +1188,18 @@
         <v>1665.3</v>
       </c>
       <c r="K11">
-        <v>34.517000000000003</v>
+        <v>34.517</v>
       </c>
       <c r="L11">
         <v>902.5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B12">
-        <v>86.24</v>
+        <v>86.23999999999999</v>
       </c>
       <c r="C12">
         <v>755.75</v>
@@ -1284,7 +1214,7 @@
         <v>66.34</v>
       </c>
       <c r="G12">
-        <v>3.6920000000000002</v>
+        <v>3.692</v>
       </c>
       <c r="H12">
         <v>106.25</v>
@@ -1296,13 +1226,13 @@
         <v>1576</v>
       </c>
       <c r="K12">
-        <v>32.287999999999997</v>
+        <v>32.288</v>
       </c>
       <c r="L12">
         <v>864.5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1316,13 +1246,13 @@
         <v>1710.9</v>
       </c>
       <c r="E13">
-        <v>126.72499999999999</v>
+        <v>126.725</v>
       </c>
       <c r="F13">
         <v>67.66</v>
       </c>
       <c r="G13">
-        <v>3.5609999999999999</v>
+        <v>3.561</v>
       </c>
       <c r="H13">
         <v>123.25</v>
@@ -1334,18 +1264,18 @@
         <v>1603.1</v>
       </c>
       <c r="K13">
-        <v>33.204000000000001</v>
+        <v>33.204</v>
       </c>
       <c r="L13">
         <v>844.75</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14">
-        <v>91.82</v>
+        <v>91.81999999999999</v>
       </c>
       <c r="C14">
         <v>698.25</v>
@@ -1357,7 +1287,7 @@
         <v>129.9</v>
       </c>
       <c r="F14">
-        <v>64.510000000000005</v>
+        <v>64.51000000000001</v>
       </c>
       <c r="G14">
         <v>3.351</v>
@@ -1372,18 +1302,18 @@
         <v>1538.7</v>
       </c>
       <c r="K14">
-        <v>30.172999999999998</v>
+        <v>30.173</v>
       </c>
       <c r="L14">
         <v>778</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B15">
-        <v>97.49</v>
+        <v>97.48999999999999</v>
       </c>
       <c r="C15">
         <v>740.5</v>
@@ -1410,13 +1340,13 @@
         <v>1673.9</v>
       </c>
       <c r="K15">
-        <v>31.335000000000001</v>
+        <v>31.335</v>
       </c>
       <c r="L15">
         <v>779.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1436,7 +1366,7 @@
         <v>67.33</v>
       </c>
       <c r="G16">
-        <v>3.4860000000000002</v>
+        <v>3.486</v>
       </c>
       <c r="H16">
         <v>127.15</v>
@@ -1454,7 +1384,7 @@
         <v>707.75</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1486,18 +1416,18 @@
         <v>1571.2</v>
       </c>
       <c r="K17">
-        <v>28.292000000000002</v>
+        <v>28.292</v>
       </c>
       <c r="L17">
         <v>687.75</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B18">
-        <v>93.46</v>
+        <v>93.45999999999999</v>
       </c>
       <c r="C18">
         <v>683.25</v>
@@ -1524,13 +1454,13 @@
         <v>1505.4</v>
       </c>
       <c r="K18">
-        <v>24.143999999999998</v>
+        <v>24.144</v>
       </c>
       <c r="L18">
         <v>721.75</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1562,13 +1492,13 @@
         <v>1460.6</v>
       </c>
       <c r="K19">
-        <v>22.228000000000002</v>
+        <v>22.228</v>
       </c>
       <c r="L19">
         <v>705.5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -1588,7 +1518,7 @@
         <v>65.02</v>
       </c>
       <c r="G20">
-        <v>3.5649999999999999</v>
+        <v>3.565</v>
       </c>
       <c r="H20">
         <v>129.9</v>
@@ -1600,13 +1530,13 @@
         <v>1336.9</v>
       </c>
       <c r="K20">
-        <v>19.451000000000001</v>
+        <v>19.451</v>
       </c>
       <c r="L20">
         <v>648.5</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -1626,7 +1556,7 @@
         <v>66.27</v>
       </c>
       <c r="G21">
-        <v>3.4460000000000002</v>
+        <v>3.446</v>
       </c>
       <c r="H21">
         <v>143.9</v>
@@ -1638,13 +1568,13 @@
         <v>1428.4</v>
       </c>
       <c r="K21">
-        <v>19.617000000000001</v>
+        <v>19.617</v>
       </c>
       <c r="L21">
         <v>664.25</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1667,7 +1597,7 @@
         <v>3.581</v>
       </c>
       <c r="H22">
-        <v>136.94999999999999</v>
+        <v>136.95</v>
       </c>
       <c r="I22">
         <v>722.1</v>
@@ -1676,13 +1606,13 @@
         <v>1526.2</v>
       </c>
       <c r="K22">
-        <v>23.463000000000001</v>
+        <v>23.463</v>
       </c>
       <c r="L22">
         <v>643.25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,7 +1635,7 @@
         <v>3.56</v>
       </c>
       <c r="H23">
-        <v>131.30000000000001</v>
+        <v>131.3</v>
       </c>
       <c r="I23">
         <v>726.15</v>
@@ -1714,13 +1644,13 @@
         <v>1408.1</v>
       </c>
       <c r="K23">
-        <v>21.655999999999999</v>
+        <v>21.656</v>
       </c>
       <c r="L23">
         <v>678.5</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -1752,13 +1682,13 @@
         <v>1445.9</v>
       </c>
       <c r="K24">
-        <v>21.832000000000001</v>
+        <v>21.832</v>
       </c>
       <c r="L24">
         <v>667.5</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -1769,19 +1699,19 @@
         <v>415.25</v>
       </c>
       <c r="D25">
-        <v>1250.5999999999999</v>
+        <v>1250.6</v>
       </c>
       <c r="E25">
-        <v>133.47499999999999</v>
+        <v>133.475</v>
       </c>
       <c r="F25">
         <v>71.59</v>
       </c>
       <c r="G25">
-        <v>3.9540000000000002</v>
+        <v>3.954</v>
       </c>
       <c r="H25">
-        <v>139.69999999999999</v>
+        <v>139.7</v>
       </c>
       <c r="I25">
         <v>718</v>
@@ -1790,13 +1720,13 @@
         <v>1367.9</v>
       </c>
       <c r="K25">
-        <v>19.981000000000002</v>
+        <v>19.981</v>
       </c>
       <c r="L25">
         <v>655</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -1807,7 +1737,7 @@
         <v>422</v>
       </c>
       <c r="D26">
-        <v>1201.9000000000001</v>
+        <v>1201.9</v>
       </c>
       <c r="E26">
         <v>134.5</v>
@@ -1816,10 +1746,10 @@
         <v>68.91</v>
       </c>
       <c r="G26">
-        <v>4.2300000000000004</v>
+        <v>4.23</v>
       </c>
       <c r="H26">
-        <v>136.44999999999999</v>
+        <v>136.45</v>
       </c>
       <c r="I26">
         <v>717.4</v>
@@ -1828,36 +1758,36 @@
         <v>1371.1</v>
       </c>
       <c r="K26">
-        <v>19.338999999999999</v>
+        <v>19.339</v>
       </c>
       <c r="L26">
         <v>605.25</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B27">
-        <v>97.49</v>
+        <v>97.48999999999999</v>
       </c>
       <c r="C27">
         <v>434</v>
       </c>
       <c r="D27">
-        <v>1240.0999999999999</v>
+        <v>1240.1</v>
       </c>
       <c r="E27">
-        <v>141.67500000000001</v>
+        <v>141.675</v>
       </c>
       <c r="F27">
         <v>61.12</v>
       </c>
       <c r="G27">
-        <v>4.9429999999999996</v>
+        <v>4.943</v>
       </c>
       <c r="H27">
-        <v>142.55000000000001</v>
+        <v>142.55</v>
       </c>
       <c r="I27">
         <v>703</v>
@@ -1872,7 +1802,7 @@
         <v>555.75</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -1886,7 +1816,7 @@
         <v>1321.4</v>
       </c>
       <c r="E28">
-        <v>151.94999999999999</v>
+        <v>151.95</v>
       </c>
       <c r="F28">
         <v>56.15</v>
@@ -1904,13 +1834,13 @@
         <v>1446.2</v>
       </c>
       <c r="K28">
-        <v>21.204000000000001</v>
+        <v>21.204</v>
       </c>
       <c r="L28">
         <v>599</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -1921,7 +1851,7 @@
         <v>502</v>
       </c>
       <c r="D29">
-        <v>1283.4000000000001</v>
+        <v>1283.4</v>
       </c>
       <c r="E29">
         <v>145.85</v>
@@ -1930,7 +1860,7 @@
         <v>51.27</v>
       </c>
       <c r="G29">
-        <v>4.3710000000000004</v>
+        <v>4.371</v>
       </c>
       <c r="H29">
         <v>155</v>
@@ -1942,33 +1872,33 @@
         <v>1418.5</v>
       </c>
       <c r="K29">
-        <v>19.734000000000002</v>
+        <v>19.734</v>
       </c>
       <c r="L29">
         <v>697.25</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B30">
-        <v>99.74</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="C30">
         <v>514</v>
       </c>
       <c r="D30">
-        <v>1295.5999999999999</v>
+        <v>1295.6</v>
       </c>
       <c r="E30">
-        <v>145.82499999999999</v>
+        <v>145.825</v>
       </c>
       <c r="F30">
         <v>46.27</v>
       </c>
       <c r="G30">
-        <v>4.8150000000000004</v>
+        <v>4.815</v>
       </c>
       <c r="H30">
         <v>154.6</v>
@@ -1986,7 +1916,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -1997,16 +1927,16 @@
         <v>465.75</v>
       </c>
       <c r="D31">
-        <v>1245.5999999999999</v>
+        <v>1245.6</v>
       </c>
       <c r="E31">
-        <v>137.80000000000001</v>
+        <v>137.8</v>
       </c>
       <c r="F31">
         <v>44.14</v>
       </c>
       <c r="G31">
-        <v>4.5419999999999998</v>
+        <v>4.542</v>
       </c>
       <c r="H31">
         <v>159.4</v>
@@ -2018,51 +1948,51 @@
         <v>1454.7</v>
       </c>
       <c r="K31">
-        <v>18.652999999999999</v>
+        <v>18.653</v>
       </c>
       <c r="L31">
         <v>627.25</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:12">
+      <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32">
         <v>105.37</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32">
         <v>424.25</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32">
         <v>1321.8</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32">
         <v>153</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32">
         <v>39.6</v>
       </c>
-      <c r="G32" s="3">
-        <v>4.4610000000000003</v>
-      </c>
-      <c r="H32" s="3">
-        <v>140.80000000000001</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="G32">
+        <v>4.461</v>
+      </c>
+      <c r="H32">
+        <v>140.8</v>
+      </c>
+      <c r="I32">
         <v>843.55</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32">
         <v>1481</v>
       </c>
-      <c r="K32" s="3">
-        <v>21.007000000000001</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="K32">
+        <v>21.007</v>
+      </c>
+      <c r="L32">
         <v>564.75</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
@@ -2076,16 +2006,16 @@
         <v>1281.3</v>
       </c>
       <c r="E33">
-        <v>157.92500000000001</v>
+        <v>157.925</v>
       </c>
       <c r="F33">
         <v>41.51</v>
       </c>
       <c r="G33">
-        <v>3.8410000000000002</v>
+        <v>3.841</v>
       </c>
       <c r="H33">
-        <v>140.69999999999999</v>
+        <v>140.7</v>
       </c>
       <c r="I33">
         <v>874.65</v>
@@ -2094,18 +2024,18 @@
         <v>1465.7</v>
       </c>
       <c r="K33">
-        <v>20.373000000000001</v>
+        <v>20.373</v>
       </c>
       <c r="L33">
         <v>530.25</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B34">
-        <v>95.96</v>
+        <v>95.95999999999999</v>
       </c>
       <c r="C34">
         <v>359</v>
@@ -2120,10 +2050,10 @@
         <v>51.1</v>
       </c>
       <c r="G34">
-        <v>4.0650000000000004</v>
+        <v>4.065</v>
       </c>
       <c r="H34">
-        <v>148.55000000000001</v>
+        <v>148.55</v>
       </c>
       <c r="I34">
         <v>908.65</v>
@@ -2138,7 +2068,7 @@
         <v>550.25</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
@@ -2152,13 +2082,13 @@
         <v>1210.5</v>
       </c>
       <c r="E35">
-        <v>160.44999999999999</v>
+        <v>160.45</v>
       </c>
       <c r="F35">
         <v>55.79</v>
       </c>
       <c r="G35">
-        <v>4.1210000000000004</v>
+        <v>4.121</v>
       </c>
       <c r="H35">
         <v>144.75</v>
@@ -2176,18 +2106,18 @@
         <v>477.75</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B36">
-        <v>80.540000000000006</v>
+        <v>80.54000000000001</v>
       </c>
       <c r="C36">
         <v>376.75</v>
       </c>
       <c r="D36">
-        <v>1171.0999999999999</v>
+        <v>1171.1</v>
       </c>
       <c r="E36">
         <v>169.5</v>
@@ -2196,7 +2126,7 @@
         <v>54.07</v>
       </c>
       <c r="G36">
-        <v>3.8730000000000002</v>
+        <v>3.873</v>
       </c>
       <c r="H36">
         <v>133.65</v>
@@ -2208,18 +2138,18 @@
         <v>1236.2</v>
       </c>
       <c r="K36">
-        <v>16.077000000000002</v>
+        <v>16.077</v>
       </c>
       <c r="L36">
         <v>532.5</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B37">
-        <v>66.150000000000006</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="C37">
         <v>375.75</v>
@@ -2234,7 +2164,7 @@
         <v>58.27</v>
       </c>
       <c r="G37">
-        <v>4.0880000000000001</v>
+        <v>4.088</v>
       </c>
       <c r="H37">
         <v>148.85</v>
@@ -2243,16 +2173,16 @@
         <v>812.4</v>
       </c>
       <c r="J37">
-        <v>1210.4000000000001</v>
+        <v>1210.4</v>
       </c>
       <c r="K37">
-        <v>15.489000000000001</v>
+        <v>15.489</v>
       </c>
       <c r="L37">
         <v>577.25</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -2263,7 +2193,7 @@
         <v>397</v>
       </c>
       <c r="D38">
-        <v>1183.9000000000001</v>
+        <v>1183.9</v>
       </c>
       <c r="E38">
         <v>165.7</v>
@@ -2272,16 +2202,16 @@
         <v>49.81</v>
       </c>
       <c r="G38">
-        <v>2.8889999999999998</v>
+        <v>2.889</v>
       </c>
       <c r="H38">
-        <v>140.05000000000001</v>
+        <v>140.05</v>
       </c>
       <c r="I38">
         <v>798.4</v>
       </c>
       <c r="J38">
-        <v>1208.9000000000001</v>
+        <v>1208.9</v>
       </c>
       <c r="K38">
         <v>15.565</v>
@@ -2290,7 +2220,7 @@
         <v>589.75</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
@@ -2310,7 +2240,7 @@
         <v>45.86</v>
       </c>
       <c r="G39">
-        <v>2.6909999999999998</v>
+        <v>2.691</v>
       </c>
       <c r="H39">
         <v>140</v>
@@ -2328,7 +2258,7 @@
         <v>502.75</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -2339,7 +2269,7 @@
         <v>384.5</v>
       </c>
       <c r="D40">
-        <v>1212.5999999999999</v>
+        <v>1212.6</v>
       </c>
       <c r="E40">
         <v>158</v>
@@ -2360,13 +2290,13 @@
         <v>1186.7</v>
       </c>
       <c r="K40">
-        <v>16.513000000000002</v>
+        <v>16.513</v>
       </c>
       <c r="L40">
         <v>517.5</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
         <v>51</v>
       </c>
@@ -2377,10 +2307,10 @@
         <v>376.25</v>
       </c>
       <c r="D41">
-        <v>1183.0999999999999</v>
+        <v>1183.1</v>
       </c>
       <c r="E41">
-        <v>161.32499999999999</v>
+        <v>161.325</v>
       </c>
       <c r="F41">
         <v>45.89</v>
@@ -2395,7 +2325,7 @@
         <v>735</v>
       </c>
       <c r="J41">
-        <v>1142.5999999999999</v>
+        <v>1142.6</v>
       </c>
       <c r="K41">
         <v>16.581</v>
@@ -2404,7 +2334,7 @@
         <v>511.75</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -2415,7 +2345,7 @@
         <v>362.5</v>
       </c>
       <c r="D42">
-        <v>1182.4000000000001</v>
+        <v>1182.4</v>
       </c>
       <c r="E42">
         <v>159.5</v>
@@ -2424,7 +2354,7 @@
         <v>41.94</v>
       </c>
       <c r="G42">
-        <v>2.7509999999999999</v>
+        <v>2.751</v>
       </c>
       <c r="H42">
         <v>109.4</v>
@@ -2433,16 +2363,16 @@
         <v>776.5</v>
       </c>
       <c r="J42">
-        <v>1139.9000000000001</v>
+        <v>1139.9</v>
       </c>
       <c r="K42">
-        <v>16.123999999999999</v>
+        <v>16.124</v>
       </c>
       <c r="L42">
         <v>467</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
@@ -2453,16 +2383,16 @@
         <v>351.5</v>
       </c>
       <c r="D43">
-        <v>1189.4000000000001</v>
+        <v>1189.4</v>
       </c>
       <c r="E43">
-        <v>152.32499999999999</v>
+        <v>152.325</v>
       </c>
       <c r="F43">
         <v>41.89</v>
       </c>
       <c r="G43">
-        <v>2.6419999999999999</v>
+        <v>2.642</v>
       </c>
       <c r="H43">
         <v>114.25</v>
@@ -2474,13 +2404,13 @@
         <v>1111</v>
       </c>
       <c r="K43">
-        <v>16.684000000000001</v>
+        <v>16.684</v>
       </c>
       <c r="L43">
         <v>477</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -2500,7 +2430,7 @@
         <v>42.13</v>
       </c>
       <c r="G44">
-        <v>2.8319999999999999</v>
+        <v>2.832</v>
       </c>
       <c r="H44">
         <v>114.9</v>
@@ -2509,7 +2439,7 @@
         <v>671.65</v>
       </c>
       <c r="J44">
-        <v>1078.5999999999999</v>
+        <v>1078.6</v>
       </c>
       <c r="K44">
         <v>15.551</v>
@@ -2518,7 +2448,7 @@
         <v>614.75</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
@@ -2529,16 +2459,16 @@
         <v>371</v>
       </c>
       <c r="D45">
-        <v>1094.9000000000001</v>
+        <v>1094.9</v>
       </c>
       <c r="E45">
-        <v>145.69999999999999</v>
+        <v>145.7</v>
       </c>
       <c r="F45">
         <v>42.35</v>
       </c>
       <c r="G45">
-        <v>2.7160000000000002</v>
+        <v>2.716</v>
       </c>
       <c r="H45">
         <v>123.6</v>
@@ -2556,7 +2486,7 @@
         <v>499.25</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -2567,22 +2497,22 @@
         <v>363.75</v>
       </c>
       <c r="D46">
-        <v>1131.5999999999999</v>
+        <v>1131.6</v>
       </c>
       <c r="E46">
         <v>145.5</v>
       </c>
       <c r="F46">
-        <v>40.880000000000003</v>
+        <v>40.88</v>
       </c>
       <c r="G46">
-        <v>2.6890000000000001</v>
+        <v>2.689</v>
       </c>
       <c r="H46">
         <v>129.6</v>
       </c>
       <c r="I46">
-        <v>601.54999999999995</v>
+        <v>601.55</v>
       </c>
       <c r="J46">
         <v>1010.1</v>
@@ -2594,7 +2524,7 @@
         <v>482.5</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
@@ -2632,7 +2562,7 @@
         <v>512.75</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
@@ -2649,10 +2579,10 @@
         <v>139.25</v>
       </c>
       <c r="F48">
-        <v>39.450000000000003</v>
+        <v>39.45</v>
       </c>
       <c r="G48">
-        <v>2.3210000000000002</v>
+        <v>2.321</v>
       </c>
       <c r="H48">
         <v>134.65</v>
@@ -2664,13 +2594,13 @@
         <v>988.6</v>
       </c>
       <c r="K48">
-        <v>15.566000000000001</v>
+        <v>15.566</v>
       </c>
       <c r="L48">
         <v>522</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -2684,19 +2614,19 @@
         <v>1065.8</v>
       </c>
       <c r="E49">
-        <v>130.05000000000001</v>
+        <v>130.05</v>
       </c>
       <c r="F49">
         <v>38.65</v>
       </c>
       <c r="G49">
-        <v>2.2349999999999999</v>
+        <v>2.235</v>
       </c>
       <c r="H49">
         <v>141.75</v>
       </c>
       <c r="I49">
-        <v>541.95000000000005</v>
+        <v>541.95</v>
       </c>
       <c r="J49">
         <v>832.3</v>
@@ -2708,7 +2638,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
@@ -2722,19 +2652,19 @@
         <v>1060.3</v>
       </c>
       <c r="E50">
-        <v>135.80000000000001</v>
+        <v>135.8</v>
       </c>
       <c r="F50">
-        <v>33.130000000000003</v>
+        <v>33.13</v>
       </c>
       <c r="G50">
-        <v>2.3370000000000002</v>
+        <v>2.337</v>
       </c>
       <c r="H50">
         <v>140</v>
       </c>
       <c r="I50">
-        <v>560.79999999999995</v>
+        <v>560.8</v>
       </c>
       <c r="J50">
         <v>891.7</v>
@@ -2746,21 +2676,21 @@
         <v>470</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B51">
-        <v>33.619999999999997</v>
+        <v>33.62</v>
       </c>
       <c r="C51">
         <v>372</v>
       </c>
       <c r="D51">
-        <v>1116.4000000000001</v>
+        <v>1116.4</v>
       </c>
       <c r="E51">
-        <v>135.30000000000001</v>
+        <v>135.3</v>
       </c>
       <c r="F51">
         <v>30.59</v>
@@ -2778,13 +2708,13 @@
         <v>872.3</v>
       </c>
       <c r="K51">
-        <v>14.228999999999999</v>
+        <v>14.229</v>
       </c>
       <c r="L51">
         <v>479.25</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
@@ -2795,7 +2725,7 @@
         <v>353.5</v>
       </c>
       <c r="D52">
-        <v>1233.9000000000001</v>
+        <v>1233.9</v>
       </c>
       <c r="E52">
         <v>139.5</v>
@@ -2804,7 +2734,7 @@
         <v>29.34</v>
       </c>
       <c r="G52">
-        <v>1.7110000000000001</v>
+        <v>1.711</v>
       </c>
       <c r="H52">
         <v>121.4</v>
@@ -2816,18 +2746,18 @@
         <v>933.7</v>
       </c>
       <c r="K52">
-        <v>14.896000000000001</v>
+        <v>14.896</v>
       </c>
       <c r="L52">
         <v>445</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B53">
-        <v>38.340000000000003</v>
+        <v>38.34</v>
       </c>
       <c r="C53">
         <v>351.5</v>
@@ -2836,19 +2766,19 @@
         <v>1234.2</v>
       </c>
       <c r="E53">
-        <v>132.92500000000001</v>
+        <v>132.925</v>
       </c>
       <c r="F53">
         <v>28.02</v>
       </c>
       <c r="G53">
-        <v>1.9590000000000001</v>
+        <v>1.959</v>
       </c>
       <c r="H53">
-        <v>147.19999999999999</v>
+        <v>147.2</v>
       </c>
       <c r="I53">
-        <v>563.04999999999995</v>
+        <v>563.05</v>
       </c>
       <c r="J53">
         <v>976.6</v>
@@ -2860,7 +2790,7 @@
         <v>473.5</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
         <v>64</v>
       </c>
@@ -2880,7 +2810,7 @@
         <v>28.61</v>
       </c>
       <c r="G54">
-        <v>2.1779999999999999</v>
+        <v>2.178</v>
       </c>
       <c r="H54">
         <v>124.55</v>
@@ -2889,16 +2819,16 @@
         <v>627.9</v>
       </c>
       <c r="J54">
-        <v>1077.9000000000001</v>
+        <v>1077.9</v>
       </c>
       <c r="K54">
-        <v>17.789000000000001</v>
+        <v>17.789</v>
       </c>
       <c r="L54">
         <v>478</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
         <v>65</v>
       </c>
@@ -2915,13 +2845,13 @@
         <v>121.1</v>
       </c>
       <c r="F55">
-        <v>32.299999999999997</v>
+        <v>32.3</v>
       </c>
       <c r="G55">
-        <v>2.2879999999999998</v>
+        <v>2.288</v>
       </c>
       <c r="H55">
-        <v>152.55000000000001</v>
+        <v>152.55</v>
       </c>
       <c r="I55">
         <v>547.75</v>
@@ -2936,7 +2866,7 @@
         <v>464.5</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
         <v>66</v>
       </c>
@@ -2956,7 +2886,7 @@
         <v>34.71</v>
       </c>
       <c r="G56">
-        <v>2.9239999999999999</v>
+        <v>2.924</v>
       </c>
       <c r="H56">
         <v>177.15</v>
@@ -2968,13 +2898,13 @@
         <v>1021.5</v>
       </c>
       <c r="K56">
-        <v>18.582000000000001</v>
+        <v>18.582</v>
       </c>
       <c r="L56">
         <v>431.25</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
         <v>67</v>
       </c>
@@ -2991,10 +2921,10 @@
         <v>113.075</v>
       </c>
       <c r="F57">
-        <v>36.619999999999997</v>
+        <v>36.62</v>
       </c>
       <c r="G57">
-        <v>2.8759999999999999</v>
+        <v>2.876</v>
       </c>
       <c r="H57">
         <v>174.65</v>
@@ -3006,13 +2936,13 @@
         <v>1147.3</v>
       </c>
       <c r="K57">
-        <v>20.312000000000001</v>
+        <v>20.312</v>
       </c>
       <c r="L57">
         <v>407.75</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
         <v>68</v>
       </c>
@@ -3023,13 +2953,13 @@
         <v>301.5</v>
       </c>
       <c r="D58">
-        <v>1306.9000000000001</v>
+        <v>1306.9</v>
       </c>
       <c r="E58">
         <v>111.95</v>
       </c>
       <c r="F58">
-        <v>32.049999999999997</v>
+        <v>32.05</v>
       </c>
       <c r="G58">
         <v>2.887</v>
@@ -3050,7 +2980,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
         <v>69</v>
       </c>
@@ -3064,13 +2994,13 @@
         <v>1313.3</v>
       </c>
       <c r="E59">
-        <v>98.9</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F59">
         <v>41</v>
       </c>
       <c r="G59">
-        <v>2.9060000000000001</v>
+        <v>2.906</v>
       </c>
       <c r="H59">
         <v>205</v>
@@ -3079,16 +3009,16 @@
         <v>720.5</v>
       </c>
       <c r="J59">
-        <v>1028.5999999999999</v>
+        <v>1028.6</v>
       </c>
       <c r="K59">
-        <v>19.138999999999999</v>
+        <v>19.139</v>
       </c>
       <c r="L59">
         <v>402</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
         <v>70</v>
       </c>
@@ -3108,13 +3038,13 @@
         <v>50.92</v>
       </c>
       <c r="G60">
-        <v>3.0259999999999998</v>
+        <v>3.026</v>
       </c>
       <c r="H60">
         <v>221.95</v>
       </c>
       <c r="I60">
-        <v>617.45000000000005</v>
+        <v>617.45</v>
       </c>
       <c r="J60">
         <v>975.8</v>
@@ -3126,7 +3056,7 @@
         <v>416.25</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
@@ -3146,7 +3076,7 @@
         <v>49.5</v>
       </c>
       <c r="G61">
-        <v>3.3519999999999999</v>
+        <v>3.352</v>
       </c>
       <c r="H61">
         <v>217.6</v>
@@ -3158,13 +3088,13 @@
         <v>908.1</v>
       </c>
       <c r="K61">
-        <v>16.405999999999999</v>
+        <v>16.406</v>
       </c>
       <c r="L61">
         <v>380.5</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
@@ -3184,7 +3114,7 @@
         <v>53.63</v>
       </c>
       <c r="G62">
-        <v>3.7240000000000002</v>
+        <v>3.724</v>
       </c>
       <c r="H62">
         <v>198.1</v>
@@ -3202,7 +3132,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
@@ -3213,7 +3143,7 @@
         <v>359.75</v>
       </c>
       <c r="D63">
-        <v>1208.5999999999999</v>
+        <v>1208.6</v>
       </c>
       <c r="E63">
         <v>115.6</v>
@@ -3240,7 +3170,7 @@
         <v>420.75</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
         <v>74</v>
       </c>
@@ -3251,7 +3181,7 @@
         <v>366.75</v>
       </c>
       <c r="D64">
-        <v>1252.5999999999999</v>
+        <v>1252.6</v>
       </c>
       <c r="E64">
         <v>126.6</v>
@@ -3272,13 +3202,13 @@
         <v>1029.5</v>
       </c>
       <c r="K64">
-        <v>18.420000000000002</v>
+        <v>18.42</v>
       </c>
       <c r="L64">
         <v>424.75</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
         <v>75</v>
       </c>
@@ -3310,13 +3240,13 @@
         <v>948.2</v>
       </c>
       <c r="K65">
-        <v>18.234999999999999</v>
+        <v>18.235</v>
       </c>
       <c r="L65">
         <v>426.5</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
         <v>76</v>
       </c>
@@ -3327,16 +3257,16 @@
         <v>358</v>
       </c>
       <c r="D66">
-        <v>1266.0999999999999</v>
+        <v>1266.1</v>
       </c>
       <c r="E66">
         <v>138</v>
       </c>
       <c r="F66">
-        <v>38.159999999999997</v>
+        <v>38.16</v>
       </c>
       <c r="G66">
-        <v>3.2759999999999998</v>
+        <v>3.276</v>
       </c>
       <c r="H66">
         <v>158.1</v>
@@ -3348,13 +3278,13 @@
         <v>946.3</v>
       </c>
       <c r="K66">
-        <v>17.190999999999999</v>
+        <v>17.191</v>
       </c>
       <c r="L66">
         <v>418.5</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
         <v>77</v>
       </c>
@@ -3374,10 +3304,10 @@
         <v>37.1</v>
       </c>
       <c r="G67">
-        <v>3.0710000000000002</v>
+        <v>3.071</v>
       </c>
       <c r="H67">
-        <v>133.55000000000001</v>
+        <v>133.55</v>
       </c>
       <c r="I67">
         <v>819.85</v>
@@ -3386,13 +3316,13 @@
         <v>948.5</v>
       </c>
       <c r="K67">
-        <v>17.367999999999999</v>
+        <v>17.368</v>
       </c>
       <c r="L67">
         <v>429.25</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
         <v>78</v>
       </c>
@@ -3409,10 +3339,10 @@
         <v>119.1</v>
       </c>
       <c r="F68">
-        <v>36.200000000000003</v>
+        <v>36.2</v>
       </c>
       <c r="G68">
-        <v>3.0350000000000001</v>
+        <v>3.035</v>
       </c>
       <c r="H68">
         <v>129.85</v>
@@ -3424,13 +3354,13 @@
         <v>923.7</v>
       </c>
       <c r="K68">
-        <v>16.568000000000001</v>
+        <v>16.568</v>
       </c>
       <c r="L68">
         <v>511</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
         <v>79</v>
       </c>
@@ -3441,7 +3371,7 @@
         <v>370.75</v>
       </c>
       <c r="D69">
-        <v>1266.5999999999999</v>
+        <v>1266.6</v>
       </c>
       <c r="E69">
         <v>112</v>
@@ -3468,7 +3398,7 @@
         <v>474.5</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
         <v>80</v>
       </c>
@@ -3482,7 +3412,7 @@
         <v>1316.2</v>
       </c>
       <c r="E70">
-        <v>104.52500000000001</v>
+        <v>104.525</v>
       </c>
       <c r="F70">
         <v>44.91</v>
@@ -3506,7 +3436,7 @@
         <v>410.25</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
         <v>81</v>
       </c>
@@ -3526,7 +3456,7 @@
         <v>47.32</v>
       </c>
       <c r="G71">
-        <v>3.0070000000000001</v>
+        <v>3.007</v>
       </c>
       <c r="H71">
         <v>148.35</v>
@@ -3538,13 +3468,13 @@
         <v>910.3</v>
       </c>
       <c r="K71">
-        <v>16.606999999999999</v>
+        <v>16.607</v>
       </c>
       <c r="L71">
         <v>448.25</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
         <v>82</v>
       </c>
@@ -3564,7 +3494,7 @@
         <v>50.38</v>
       </c>
       <c r="G72">
-        <v>2.8959999999999999</v>
+        <v>2.896</v>
       </c>
       <c r="H72">
         <v>156.25</v>
@@ -3582,7 +3512,7 @@
         <v>418.5</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
         <v>83</v>
       </c>
@@ -3602,7 +3532,7 @@
         <v>56.7</v>
       </c>
       <c r="G73">
-        <v>3.0249999999999999</v>
+        <v>3.025</v>
       </c>
       <c r="H73">
         <v>160.1</v>
@@ -3614,13 +3544,13 @@
         <v>941.3</v>
       </c>
       <c r="K73">
-        <v>16.382000000000001</v>
+        <v>16.382</v>
       </c>
       <c r="L73">
         <v>409.25</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
         <v>84</v>
       </c>
@@ -3640,7 +3570,7 @@
         <v>56.43</v>
       </c>
       <c r="G74">
-        <v>2.9529999999999998</v>
+        <v>2.953</v>
       </c>
       <c r="H74">
         <v>136</v>
@@ -3652,13 +3582,13 @@
         <v>934.2</v>
       </c>
       <c r="K74">
-        <v>17.059999999999999</v>
+        <v>17.06</v>
       </c>
       <c r="L74">
         <v>427</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
         <v>85</v>
       </c>
@@ -3678,10 +3608,10 @@
         <v>48.95</v>
       </c>
       <c r="G75">
-        <v>2.9950000000000001</v>
+        <v>2.995</v>
       </c>
       <c r="H75">
-        <v>148.69999999999999</v>
+        <v>148.7</v>
       </c>
       <c r="I75">
         <v>1027.5</v>
@@ -3690,13 +3620,13 @@
         <v>1001.3</v>
       </c>
       <c r="K75">
-        <v>17.204000000000001</v>
+        <v>17.204</v>
       </c>
       <c r="L75">
         <v>451.75</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
         <v>86</v>
       </c>
@@ -3716,7 +3646,7 @@
         <v>46.67</v>
       </c>
       <c r="G76">
-        <v>2.6669999999999998</v>
+        <v>2.667</v>
       </c>
       <c r="H76">
         <v>143.4</v>
@@ -3728,13 +3658,13 @@
         <v>986.6</v>
       </c>
       <c r="K76">
-        <v>16.324000000000002</v>
+        <v>16.324</v>
       </c>
       <c r="L76">
         <v>484.5</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
         <v>87</v>
       </c>
@@ -3754,7 +3684,7 @@
         <v>47.36</v>
       </c>
       <c r="G77">
-        <v>2.7330000000000001</v>
+        <v>2.733</v>
       </c>
       <c r="H77">
         <v>141.1</v>
@@ -3766,18 +3696,18 @@
         <v>927.3</v>
       </c>
       <c r="K77">
-        <v>16.222999999999999</v>
+        <v>16.223</v>
       </c>
       <c r="L77">
         <v>451</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B78">
-        <v>68.569999999999993</v>
+        <v>68.56999999999999</v>
       </c>
       <c r="C78">
         <v>392.5</v>
@@ -3792,10 +3722,10 @@
         <v>53.09</v>
       </c>
       <c r="G78">
-        <v>2.7629999999999999</v>
+        <v>2.763</v>
       </c>
       <c r="H78">
-        <v>154.94999999999999</v>
+        <v>154.95</v>
       </c>
       <c r="I78">
         <v>962.75</v>
@@ -3804,24 +3734,24 @@
         <v>899</v>
       </c>
       <c r="K78">
-        <v>16.312000000000001</v>
+        <v>16.312</v>
       </c>
       <c r="L78">
         <v>512.5</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B79">
-        <v>67.040000000000006</v>
+        <v>67.04000000000001</v>
       </c>
       <c r="C79">
         <v>394</v>
       </c>
       <c r="D79">
-        <v>1300.0999999999999</v>
+        <v>1300.1</v>
       </c>
       <c r="E79">
         <v>105.05</v>
@@ -3833,7 +3763,7 @@
         <v>2.952</v>
       </c>
       <c r="H79">
-        <v>161.80000000000001</v>
+        <v>161.8</v>
       </c>
       <c r="I79">
         <v>988.9</v>
@@ -3842,18 +3772,18 @@
         <v>908.1</v>
       </c>
       <c r="K79">
-        <v>16.402000000000001</v>
+        <v>16.402</v>
       </c>
       <c r="L79">
         <v>526.25</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B80">
-        <v>74.150000000000006</v>
+        <v>74.15000000000001</v>
       </c>
       <c r="C80">
         <v>350.25</v>
@@ -3868,10 +3798,10 @@
         <v>55.24</v>
       </c>
       <c r="G80">
-        <v>2.9239999999999999</v>
+        <v>2.924</v>
       </c>
       <c r="H80">
-        <v>159.55000000000001</v>
+        <v>159.55</v>
       </c>
       <c r="I80">
         <v>958.3</v>
@@ -3880,18 +3810,18 @@
         <v>852.4</v>
       </c>
       <c r="K80">
-        <v>16.103999999999999</v>
+        <v>16.104</v>
       </c>
       <c r="L80">
         <v>497.5</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B81">
-        <v>68.760000000000005</v>
+        <v>68.76000000000001</v>
       </c>
       <c r="C81">
         <v>372.25</v>
@@ -3924,7 +3854,7 @@
         <v>553.75</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
         <v>92</v>
       </c>
@@ -3941,10 +3871,10 @@
         <v>106.8</v>
       </c>
       <c r="F82">
-        <v>67.790000000000006</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="G82">
-        <v>2.9159999999999999</v>
+        <v>2.916</v>
       </c>
       <c r="H82">
         <v>157.85</v>
@@ -3956,13 +3886,13 @@
         <v>785.9</v>
       </c>
       <c r="K82">
-        <v>14.438000000000001</v>
+        <v>14.438</v>
       </c>
       <c r="L82">
         <v>518.5</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
         <v>93</v>
       </c>
@@ -3994,13 +3924,13 @@
         <v>818.7</v>
       </c>
       <c r="K83">
-        <v>14.622999999999999</v>
+        <v>14.623</v>
       </c>
       <c r="L83">
         <v>509</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
         <v>94</v>
       </c>
@@ -4017,28 +3947,28 @@
         <v>115.85</v>
       </c>
       <c r="F84">
-        <v>68.180000000000007</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="G84">
-        <v>3.2610000000000001</v>
+        <v>3.261</v>
       </c>
       <c r="H84">
-        <v>135.69999999999999</v>
+        <v>135.7</v>
       </c>
       <c r="I84">
-        <v>1085.0999999999999</v>
+        <v>1085.1</v>
       </c>
       <c r="J84">
         <v>839.4</v>
       </c>
       <c r="K84">
-        <v>14.228999999999999</v>
+        <v>14.229</v>
       </c>
       <c r="L84">
         <v>500.5</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
         <v>95</v>
       </c>
@@ -4055,28 +3985,28 @@
         <v>116.925</v>
       </c>
       <c r="F85">
-        <v>67.540000000000006</v>
+        <v>67.54000000000001</v>
       </c>
       <c r="G85">
-        <v>4.6120000000000001</v>
+        <v>4.612</v>
       </c>
       <c r="H85">
-        <v>143.94999999999999</v>
+        <v>143.95</v>
       </c>
       <c r="I85">
-        <v>1168.5999999999999</v>
+        <v>1168.6</v>
       </c>
       <c r="J85">
         <v>798</v>
       </c>
       <c r="K85">
-        <v>14.093999999999999</v>
+        <v>14.094</v>
       </c>
       <c r="L85">
         <v>515.75</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
         <v>96</v>
       </c>
@@ -4102,7 +4032,7 @@
         <v>125.15</v>
       </c>
       <c r="I86">
-        <v>1253.9000000000001</v>
+        <v>1253.9</v>
       </c>
       <c r="J86">
         <v>795.9</v>
@@ -4114,7 +4044,7 @@
         <v>503.25</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
         <v>97</v>
       </c>
@@ -4134,7 +4064,7 @@
         <v>51.52</v>
       </c>
       <c r="G87">
-        <v>2.8140000000000001</v>
+        <v>2.814</v>
       </c>
       <c r="H87">
         <v>120.1</v>
@@ -4146,13 +4076,13 @@
         <v>820.5</v>
       </c>
       <c r="K87">
-        <v>16.021999999999998</v>
+        <v>16.022</v>
       </c>
       <c r="L87">
         <v>516.5</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
         <v>98</v>
       </c>
@@ -4166,13 +4096,13 @@
         <v>1312.8</v>
       </c>
       <c r="E88">
-        <v>129.94999999999999</v>
+        <v>129.95</v>
       </c>
       <c r="F88">
         <v>44.11</v>
       </c>
       <c r="G88">
-        <v>2.8119999999999998</v>
+        <v>2.812</v>
       </c>
       <c r="H88">
         <v>114.3</v>
@@ -4190,7 +4120,7 @@
         <v>452.5</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
         <v>99</v>
       </c>
@@ -4210,7 +4140,7 @@
         <v>34.61</v>
       </c>
       <c r="G89">
-        <v>2.6619999999999999</v>
+        <v>2.662</v>
       </c>
       <c r="H89">
         <v>119.9</v>
@@ -4228,7 +4158,7 @@
         <v>457.75</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
         <v>100</v>
       </c>
@@ -4245,10 +4175,10 @@
         <v>123.75</v>
       </c>
       <c r="F90">
-        <v>33.659999999999997</v>
+        <v>33.66</v>
       </c>
       <c r="G90">
-        <v>2.5750000000000002</v>
+        <v>2.575</v>
       </c>
       <c r="H90">
         <v>94.8</v>
@@ -4266,7 +4196,7 @@
         <v>418.5</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
         <v>101</v>
       </c>
@@ -4280,13 +4210,13 @@
         <v>1305.8</v>
       </c>
       <c r="E91">
-        <v>108.47499999999999</v>
+        <v>108.475</v>
       </c>
       <c r="F91">
         <v>27.57</v>
       </c>
       <c r="G91">
-        <v>2.4540000000000002</v>
+        <v>2.454</v>
       </c>
       <c r="H91">
         <v>108.4</v>
@@ -4304,7 +4234,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
         <v>102</v>
       </c>
@@ -4324,7 +4254,7 @@
         <v>25.65</v>
       </c>
       <c r="G92">
-        <v>2.3079999999999998</v>
+        <v>2.308</v>
       </c>
       <c r="H92">
         <v>100.95</v>
@@ -4342,7 +4272,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
         <v>103</v>
       </c>
@@ -4362,7 +4292,7 @@
         <v>29.76</v>
       </c>
       <c r="G93">
-        <v>2.2330000000000001</v>
+        <v>2.233</v>
       </c>
       <c r="H93">
         <v>103.45</v>
@@ -4380,7 +4310,7 @@
         <v>487.25</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
         <v>104</v>
       </c>
@@ -4400,7 +4330,7 @@
         <v>33.03</v>
       </c>
       <c r="G94">
-        <v>2.2850000000000001</v>
+        <v>2.285</v>
       </c>
       <c r="H94">
         <v>100.5</v>
@@ -4412,13 +4342,13 @@
         <v>929.6</v>
       </c>
       <c r="K94">
-        <v>18.184999999999999</v>
+        <v>18.185</v>
       </c>
       <c r="L94">
         <v>451.25</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
         <v>105</v>
       </c>
@@ -4456,7 +4386,7 @@
         <v>495.75</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
         <v>106</v>
       </c>
@@ -4479,7 +4409,7 @@
         <v>2.633</v>
       </c>
       <c r="H96">
-        <v>95.85</v>
+        <v>95.84999999999999</v>
       </c>
       <c r="I96">
         <v>1758.1</v>
@@ -4488,13 +4418,13 @@
         <v>930</v>
       </c>
       <c r="K96">
-        <v>18.013999999999999</v>
+        <v>18.014</v>
       </c>
       <c r="L96">
         <v>508.75</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
         <v>107</v>
       </c>
@@ -4514,10 +4444,10 @@
         <v>42.76</v>
       </c>
       <c r="G97">
-        <v>2.2810000000000001</v>
+        <v>2.281</v>
       </c>
       <c r="H97">
-        <v>98.6</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="I97">
         <v>1815.6</v>
@@ -4526,13 +4456,13 @@
         <v>897.9</v>
       </c>
       <c r="K97">
-        <v>16.969000000000001</v>
+        <v>16.969</v>
       </c>
       <c r="L97">
         <v>547.5</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
         <v>108</v>
       </c>
@@ -4552,7 +4482,7 @@
         <v>31.07</v>
       </c>
       <c r="G98">
-        <v>2.1890000000000001</v>
+        <v>2.189</v>
       </c>
       <c r="H98">
         <v>97.2</v>
@@ -4564,13 +4494,13 @@
         <v>971.4</v>
       </c>
       <c r="K98">
-        <v>17.827999999999999</v>
+        <v>17.828</v>
       </c>
       <c r="L98">
         <v>558.75</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
         <v>109</v>
       </c>
@@ -4602,13 +4532,13 @@
         <v>959.2</v>
       </c>
       <c r="K99">
-        <v>17.972000000000001</v>
+        <v>17.972</v>
       </c>
       <c r="L99">
         <v>553.75</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
         <v>110</v>
       </c>
@@ -4628,13 +4558,13 @@
         <v>21.7</v>
       </c>
       <c r="G100">
-        <v>1.6839999999999999</v>
+        <v>1.684</v>
       </c>
       <c r="H100">
         <v>101.85</v>
       </c>
       <c r="I100">
-        <v>2508.8000000000002</v>
+        <v>2508.8</v>
       </c>
       <c r="J100">
         <v>862.8</v>
@@ -4646,7 +4576,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
         <v>111</v>
       </c>
@@ -4663,7 +4593,7 @@
         <v>101.825</v>
       </c>
       <c r="F101">
-        <v>16.329999999999998</v>
+        <v>16.33</v>
       </c>
       <c r="G101">
         <v>1.64</v>
@@ -4672,19 +4602,19 @@
         <v>120.2</v>
       </c>
       <c r="I101">
-        <v>2333.3000000000002</v>
+        <v>2333.3</v>
       </c>
       <c r="J101">
         <v>724.4</v>
       </c>
       <c r="K101">
-        <v>14.098000000000001</v>
+        <v>14.098</v>
       </c>
       <c r="L101">
         <v>568.75</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
         <v>112</v>
       </c>
@@ -4704,7 +4634,7 @@
         <v>13.87</v>
       </c>
       <c r="G102">
-        <v>1.9490000000000001</v>
+        <v>1.949</v>
       </c>
       <c r="H102">
         <v>108.3</v>
@@ -4722,7 +4652,7 @@
         <v>529.75</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
         <v>113</v>
       </c>
@@ -4736,10 +4666,10 @@
         <v>1736.9</v>
       </c>
       <c r="E103">
-        <v>99.724999999999994</v>
+        <v>99.72499999999999</v>
       </c>
       <c r="F103">
-        <v>9.6300000000000008</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="G103">
         <v>1.849</v>
@@ -4754,18 +4684,18 @@
         <v>870.5</v>
       </c>
       <c r="K103">
-        <v>18.440000000000001</v>
+        <v>18.44</v>
       </c>
       <c r="L103">
         <v>520.75</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B104">
-        <v>39.270000000000003</v>
+        <v>39.27</v>
       </c>
       <c r="C104">
         <v>338.5</v>
@@ -4774,13 +4704,13 @@
         <v>1793</v>
       </c>
       <c r="E104">
-        <v>91.65</v>
+        <v>91.65000000000001</v>
       </c>
       <c r="F104">
         <v>16.22</v>
       </c>
       <c r="G104">
-        <v>1.7509999999999999</v>
+        <v>1.751</v>
       </c>
       <c r="H104">
         <v>127.3</v>
@@ -4798,12 +4728,12 @@
         <v>490</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12">
       <c r="A105" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B105">
-        <v>40.270000000000003</v>
+        <v>40.27</v>
       </c>
       <c r="C105">
         <v>316</v>
@@ -4818,13 +4748,13 @@
         <v>15.64</v>
       </c>
       <c r="G105">
-        <v>1.7989999999999999</v>
+        <v>1.799</v>
       </c>
       <c r="H105">
         <v>121.75</v>
       </c>
       <c r="I105">
-        <v>2135.3000000000002</v>
+        <v>2135.3</v>
       </c>
       <c r="J105">
         <v>912.2</v>
@@ -4836,7 +4766,7 @@
         <v>531.25</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12">
       <c r="A106" s="1" t="s">
         <v>116</v>
       </c>
@@ -4868,13 +4798,13 @@
         <v>935.7</v>
       </c>
       <c r="K106">
-        <v>28.437000000000001</v>
+        <v>28.437</v>
       </c>
       <c r="L106">
         <v>544.25</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12">
       <c r="A107" s="1" t="s">
         <v>117</v>
       </c>
@@ -4894,13 +4824,13 @@
         <v>37</v>
       </c>
       <c r="G107">
-        <v>2.5270000000000001</v>
+        <v>2.527</v>
       </c>
       <c r="H107">
         <v>113.7</v>
       </c>
       <c r="I107">
-        <v>2321.3000000000002</v>
+        <v>2321.3</v>
       </c>
       <c r="J107">
         <v>901</v>
@@ -4912,7 +4842,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12">
       <c r="A108" s="1" t="s">
         <v>118</v>
       </c>
@@ -4926,31 +4856,31 @@
         <v>1877.4</v>
       </c>
       <c r="E108">
-        <v>105.97499999999999</v>
+        <v>105.975</v>
       </c>
       <c r="F108">
         <v>41.5</v>
       </c>
       <c r="G108">
-        <v>3.3540000000000001</v>
+        <v>3.354</v>
       </c>
       <c r="H108">
         <v>117.95</v>
       </c>
       <c r="I108">
-        <v>2210.3000000000002</v>
+        <v>2210.3</v>
       </c>
       <c r="J108">
         <v>844.6</v>
       </c>
       <c r="K108">
-        <v>23.617000000000001</v>
+        <v>23.617</v>
       </c>
       <c r="L108">
         <v>598.5</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12">
       <c r="A109" s="1" t="s">
         <v>119</v>
       </c>
@@ -4970,25 +4900,25 @@
         <v>43.67</v>
       </c>
       <c r="G109">
-        <v>2.8820000000000001</v>
+        <v>2.882</v>
       </c>
       <c r="H109">
         <v>128.75</v>
       </c>
       <c r="I109">
-        <v>2392.8000000000002</v>
+        <v>2392.8</v>
       </c>
       <c r="J109">
         <v>964.1</v>
       </c>
       <c r="K109">
-        <v>22.533999999999999</v>
+        <v>22.534</v>
       </c>
       <c r="L109">
         <v>580.25</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12">
       <c r="A110" s="1" t="s">
         <v>120</v>
       </c>
@@ -5008,7 +4938,7 @@
         <v>56.4</v>
       </c>
       <c r="G110">
-        <v>2.5390000000000001</v>
+        <v>2.539</v>
       </c>
       <c r="H110">
         <v>123.25</v>
@@ -5017,16 +4947,16 @@
         <v>2448.5</v>
       </c>
       <c r="J110">
-        <v>1075.4000000000001</v>
+        <v>1075.4</v>
       </c>
       <c r="K110">
-        <v>26.332000000000001</v>
+        <v>26.332</v>
       </c>
       <c r="L110">
         <v>640.5</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12">
       <c r="A111" s="1" t="s">
         <v>121</v>
       </c>
@@ -5046,7 +4976,7 @@
         <v>53.15</v>
       </c>
       <c r="G111">
-        <v>2.5640000000000001</v>
+        <v>2.564</v>
       </c>
       <c r="H111">
         <v>110.6</v>
@@ -5064,7 +4994,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12">
       <c r="A112" s="1" t="s">
         <v>122</v>
       </c>
@@ -5084,7 +5014,7 @@
         <v>39.79</v>
       </c>
       <c r="G112">
-        <v>2.7709999999999999</v>
+        <v>2.771</v>
       </c>
       <c r="H112">
         <v>106.75</v>
@@ -5096,13 +5026,13 @@
         <v>1183.5</v>
       </c>
       <c r="K112">
-        <v>26.402000000000001</v>
+        <v>26.402</v>
       </c>
       <c r="L112">
         <v>655</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12">
       <c r="A113" s="1" t="s">
         <v>123</v>
       </c>
@@ -5116,13 +5046,13 @@
         <v>1713.8</v>
       </c>
       <c r="E113">
-        <v>120.97499999999999</v>
+        <v>120.975</v>
       </c>
       <c r="F113">
         <v>46.8</v>
       </c>
       <c r="G113">
-        <v>2.6080000000000001</v>
+        <v>2.608</v>
       </c>
       <c r="H113">
         <v>110.6</v>
@@ -5134,13 +5064,13 @@
         <v>1188.5</v>
       </c>
       <c r="K113">
-        <v>24.516999999999999</v>
+        <v>24.517</v>
       </c>
       <c r="L113">
         <v>618</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12">
       <c r="A114" s="1" t="s">
         <v>124</v>
       </c>
@@ -5172,18 +5102,18 @@
         <v>1203</v>
       </c>
       <c r="K114">
-        <v>25.853000000000002</v>
+        <v>25.853</v>
       </c>
       <c r="L114">
         <v>742.5</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12">
       <c r="A115" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B115">
-        <v>66.319999999999993</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="C115">
         <v>656.75</v>
@@ -5198,7 +5128,7 @@
         <v>60.68</v>
       </c>
       <c r="G115">
-        <v>2.9860000000000002</v>
+        <v>2.986</v>
       </c>
       <c r="H115">
         <v>118.65</v>
@@ -5210,13 +5140,13 @@
         <v>1180.8</v>
       </c>
       <c r="K115">
-        <v>27.992999999999999</v>
+        <v>27.993</v>
       </c>
       <c r="L115">
         <v>663.5</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12">
       <c r="A116" s="1" t="s">
         <v>126</v>
       </c>
@@ -5248,13 +5178,13 @@
         <v>1070.5</v>
       </c>
       <c r="K116">
-        <v>26.164999999999999</v>
+        <v>26.165</v>
       </c>
       <c r="L116">
         <v>671.5</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12">
       <c r="A117" s="1" t="s">
         <v>127</v>
       </c>
@@ -5274,25 +5204,25 @@
         <v>103.75</v>
       </c>
       <c r="G117">
-        <v>3.9140000000000001</v>
+        <v>3.914</v>
       </c>
       <c r="H117">
-        <v>132.94999999999999</v>
+        <v>132.95</v>
       </c>
       <c r="I117">
         <v>2655.8</v>
       </c>
       <c r="J117">
-        <v>1046.9000000000001</v>
+        <v>1046.9</v>
       </c>
       <c r="K117">
-        <v>25.527999999999999</v>
+        <v>25.528</v>
       </c>
       <c r="L117">
         <v>703.75</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12">
       <c r="A118" s="1" t="s">
         <v>128</v>
       </c>
@@ -5312,13 +5242,13 @@
         <v>127.71</v>
       </c>
       <c r="G118">
-        <v>4.3769999999999998</v>
+        <v>4.377</v>
       </c>
       <c r="H118">
-        <v>134.55000000000001</v>
+        <v>134.55</v>
       </c>
       <c r="I118">
-        <v>2468.3000000000002</v>
+        <v>2468.3</v>
       </c>
       <c r="J118">
         <v>1013.9</v>
@@ -5330,7 +5260,7 @@
         <v>706.75</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12">
       <c r="A119" s="1" t="s">
         <v>129</v>
       </c>
@@ -5362,18 +5292,18 @@
         <v>960.9</v>
       </c>
       <c r="K119">
-        <v>22.021000000000001</v>
+        <v>22.021</v>
       </c>
       <c r="L119">
         <v>725.5</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12">
       <c r="A120" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B120">
-        <v>83.57</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="C120">
         <v>568.25</v>
@@ -5388,7 +5318,7 @@
         <v>165.98</v>
       </c>
       <c r="G120">
-        <v>5.4260000000000002</v>
+        <v>5.426</v>
       </c>
       <c r="H120">
         <v>120.35</v>
@@ -5406,12 +5336,12 @@
         <v>772.75</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12">
       <c r="A121" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B121">
-        <v>66.180000000000007</v>
+        <v>66.18000000000001</v>
       </c>
       <c r="C121">
         <v>567</v>
@@ -5426,7 +5356,7 @@
         <v>238.31</v>
       </c>
       <c r="G121">
-        <v>4.5670000000000002</v>
+        <v>4.567</v>
       </c>
       <c r="H121">
         <v>122.9</v>
@@ -5438,18 +5368,18 @@
         <v>926.6</v>
       </c>
       <c r="K121">
-        <v>22.765000000000001</v>
+        <v>22.765</v>
       </c>
       <c r="L121">
         <v>773.75</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12">
       <c r="A122" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B122">
-        <v>75.209999999999994</v>
+        <v>75.20999999999999</v>
       </c>
       <c r="C122">
         <v>593.25</v>
@@ -5467,7 +5397,7 @@
         <v>3.73</v>
       </c>
       <c r="H122">
-        <v>146.30000000000001</v>
+        <v>146.3</v>
       </c>
       <c r="I122">
         <v>1908.1</v>
@@ -5476,7 +5406,7 @@
         <v>964.4</v>
       </c>
       <c r="K122">
-        <v>23.327999999999999</v>
+        <v>23.328</v>
       </c>
       <c r="L122">
         <v>770.75</v>
